--- a/disagreement_matrix/engineering_version/rsj_matrix_records/WPBC_withoutdupl_norm_ido.xlsx
+++ b/disagreement_matrix/engineering_version/rsj_matrix_records/WPBC_withoutdupl_norm_ido.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I199"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -394,5750 +394,5153 @@
       <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1708015222362432</v>
+        <v>0.2093947748409893</v>
       </c>
       <c r="C2">
-        <v>0.1142170308525313</v>
+        <v>0.1198015837295791</v>
       </c>
       <c r="D2">
-        <v>0.1065694413746143</v>
+        <v>0.1200849541183293</v>
       </c>
       <c r="E2">
-        <v>0.1150256626816772</v>
+        <v>0.1362213450967578</v>
       </c>
       <c r="F2">
-        <v>0.06131204593081835</v>
+        <v>0.06893149760107975</v>
       </c>
       <c r="G2">
-        <v>0.1527747532326941</v>
+        <v>0.1630135631528302</v>
       </c>
       <c r="H2">
-        <v>0.1537341052019031</v>
-      </c>
-      <c r="I2">
-        <v>0.1255654384895184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.1825522814604346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.06816892359540669</v>
+        <v>0.07167118341690706</v>
       </c>
       <c r="C3">
-        <v>0.1270365045670429</v>
+        <v>0.1428846664204736</v>
       </c>
       <c r="D3">
-        <v>0.1775678874038092</v>
+        <v>0.2081673725917678</v>
       </c>
       <c r="E3">
-        <v>0.1624693755005705</v>
+        <v>0.1918699902138272</v>
       </c>
       <c r="F3">
-        <v>0.1351386846971864</v>
+        <v>0.1510342767814488</v>
       </c>
       <c r="G3">
-        <v>0.132046631295921</v>
+        <v>0.1615443383291089</v>
       </c>
       <c r="H3">
-        <v>0.06417048754107861</v>
-      </c>
-      <c r="I3">
-        <v>0.1334015053989847</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.07282817224646664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0976059094944807</v>
+        <v>0.1162502686858318</v>
       </c>
       <c r="C4">
-        <v>0.1126769629581341</v>
+        <v>0.1287291168941938</v>
       </c>
       <c r="D4">
-        <v>0.1337725868401191</v>
+        <v>0.1522774346088845</v>
       </c>
       <c r="E4">
-        <v>0.1482134886022511</v>
+        <v>0.1674042438829504</v>
       </c>
       <c r="F4">
-        <v>0.1951443385749363</v>
+        <v>0.2161052885379887</v>
       </c>
       <c r="G4">
-        <v>0.08992256651607951</v>
+        <v>0.1021908527799759</v>
       </c>
       <c r="H4">
-        <v>0.1027518185312573</v>
-      </c>
-      <c r="I4">
-        <v>0.119912328482742</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.1170427946101748</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.02038465503318048</v>
+        <v>0.01848752782428387</v>
       </c>
       <c r="C5">
-        <v>0.094848549192907</v>
+        <v>0.08601560140813544</v>
       </c>
       <c r="D5">
-        <v>0.3047659715488919</v>
+        <v>0.3609626891496145</v>
       </c>
       <c r="E5">
-        <v>0.3472236260453234</v>
+        <v>0.4112493914651514</v>
       </c>
       <c r="F5">
-        <v>0.03133595820419574</v>
+        <v>0.02841878933989975</v>
       </c>
       <c r="G5">
-        <v>0.003143683780904359</v>
+        <v>0.002852439322419683</v>
       </c>
       <c r="H5">
-        <v>0.1014625608334513</v>
-      </c>
-      <c r="I5">
-        <v>0.09683499536114583</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.0920135614904955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1375081863915839</v>
+        <v>0.1562974541338638</v>
       </c>
       <c r="C6">
-        <v>0.1310201610958184</v>
+        <v>0.1518814320490481</v>
       </c>
       <c r="D6">
-        <v>0.1171907885060116</v>
+        <v>0.1340442896984553</v>
       </c>
       <c r="E6">
-        <v>0.1194553407866803</v>
+        <v>0.1304107018455963</v>
       </c>
       <c r="F6">
-        <v>0.1229901636349805</v>
+        <v>0.1395972513929816</v>
       </c>
       <c r="G6">
-        <v>0.1052846888430596</v>
+        <v>0.1197481431090898</v>
       </c>
       <c r="H6">
-        <v>0.1486121678671537</v>
-      </c>
-      <c r="I6">
-        <v>0.1179385028747119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.1680207277709651</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1411775799403171</v>
+        <v>0.1577505803213324</v>
       </c>
       <c r="C7">
-        <v>0.1134204736285129</v>
+        <v>0.1292162300363158</v>
       </c>
       <c r="D7">
-        <v>0.1275282410489766</v>
+        <v>0.1441260236883435</v>
       </c>
       <c r="E7">
-        <v>0.1148925337776918</v>
+        <v>0.1302121677876505</v>
       </c>
       <c r="F7">
-        <v>0.1079442034736439</v>
+        <v>0.1238937308591383</v>
       </c>
       <c r="G7">
-        <v>0.1261073854787448</v>
+        <v>0.1443397366310854</v>
       </c>
       <c r="H7">
-        <v>0.1501244736966834</v>
-      </c>
-      <c r="I7">
-        <v>0.1188051089554296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.170461530676134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07549059406345258</v>
+        <v>0.07630014492665792</v>
       </c>
       <c r="C8">
-        <v>0.1165683238571414</v>
+        <v>0.1214216909216372</v>
       </c>
       <c r="D8">
-        <v>0.1426397478010867</v>
+        <v>0.1442263858564583</v>
       </c>
       <c r="E8">
-        <v>0.09549927290155961</v>
+        <v>0.09362656627390616</v>
       </c>
       <c r="F8">
-        <v>0.05118754349547068</v>
+        <v>0.05589756270489073</v>
       </c>
       <c r="G8">
-        <v>0.2615129158262705</v>
+        <v>0.3448790705132337</v>
       </c>
       <c r="H8">
-        <v>0.1394586863358634</v>
-      </c>
-      <c r="I8">
-        <v>0.117642915719155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.1636485788032159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1495520679185975</v>
+        <v>0.1812162883703105</v>
       </c>
       <c r="C9">
-        <v>0.1239419039252308</v>
+        <v>0.1393665709675767</v>
       </c>
       <c r="D9">
-        <v>0.09713602592122537</v>
+        <v>0.1182887301626883</v>
       </c>
       <c r="E9">
-        <v>0.1184919485963963</v>
+        <v>0.1426848815041009</v>
       </c>
       <c r="F9">
-        <v>0.1009802568419295</v>
+        <v>0.1132858700647938</v>
       </c>
       <c r="G9">
-        <v>0.1080813706906872</v>
+        <v>0.1199611442297858</v>
       </c>
       <c r="H9">
-        <v>0.1722667764701202</v>
-      </c>
-      <c r="I9">
-        <v>0.1295496496358132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.185196514700744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1133462503634708</v>
+        <v>0.1243753933177636</v>
       </c>
       <c r="C10">
-        <v>0.1281737285459341</v>
+        <v>0.1511530508062213</v>
       </c>
       <c r="D10">
-        <v>0.1304584925205757</v>
+        <v>0.1467068050289655</v>
       </c>
       <c r="E10">
-        <v>0.1307850854231055</v>
+        <v>0.1484911157211078</v>
       </c>
       <c r="F10">
-        <v>0.1410866097047231</v>
+        <v>0.1691381599064268</v>
       </c>
       <c r="G10">
-        <v>0.1213305386182842</v>
+        <v>0.139108998453516</v>
       </c>
       <c r="H10">
-        <v>0.1074776471424381</v>
-      </c>
-      <c r="I10">
-        <v>0.1273416476814686</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.1210264767659991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.08434335451246563</v>
+        <v>0.0941515394553733</v>
       </c>
       <c r="C11">
-        <v>0.08289760430049006</v>
+        <v>0.09981789654678894</v>
       </c>
       <c r="D11">
-        <v>0.07769961341773562</v>
+        <v>0.08799453811506605</v>
       </c>
       <c r="E11">
-        <v>0.1145671780778633</v>
+        <v>0.1297474255440837</v>
       </c>
       <c r="F11">
-        <v>0.3597963593997839</v>
+        <v>0.3722015530943621</v>
       </c>
       <c r="G11">
-        <v>0.1131967869147876</v>
+        <v>0.1431523086612446</v>
       </c>
       <c r="H11">
-        <v>0.07387079628846162</v>
-      </c>
-      <c r="I11">
-        <v>0.09362830708841212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.07293473858308122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1149678321322913</v>
+        <v>0.1326870881547787</v>
       </c>
       <c r="C12">
-        <v>0.1226899272507693</v>
+        <v>0.1405565209568286</v>
       </c>
       <c r="D12">
-        <v>0.1302812550749128</v>
+        <v>0.1463846501525059</v>
       </c>
       <c r="E12">
-        <v>0.1247834917167188</v>
+        <v>0.1401359293547919</v>
       </c>
       <c r="F12">
-        <v>0.1318807086018285</v>
+        <v>0.1508824004547401</v>
       </c>
       <c r="G12">
-        <v>0.1357439532688929</v>
+        <v>0.1545609382446464</v>
       </c>
       <c r="H12">
-        <v>0.1170021418551017</v>
-      </c>
-      <c r="I12">
-        <v>0.1226506900994846</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.1347924726817085</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1690543159503552</v>
+        <v>0.1920105271358993</v>
       </c>
       <c r="C13">
-        <v>0.13532901141444</v>
+        <v>0.1654329151768805</v>
       </c>
       <c r="D13">
-        <v>0.08925978043302002</v>
+        <v>0.1048297600247356</v>
       </c>
       <c r="E13">
-        <v>0.09296436320378737</v>
+        <v>0.1039121657297022</v>
       </c>
       <c r="F13">
-        <v>0.05466490542479932</v>
+        <v>0.06123371196716085</v>
       </c>
       <c r="G13">
-        <v>0.1654379602621834</v>
+        <v>0.2026979895009653</v>
       </c>
       <c r="H13">
-        <v>0.135674326260962</v>
-      </c>
-      <c r="I13">
-        <v>0.1576153370504526</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.1698829304646563</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1315680838538241</v>
+        <v>0.1520975333243288</v>
       </c>
       <c r="C14">
-        <v>0.1465995955830465</v>
+        <v>0.166638525431776</v>
       </c>
       <c r="D14">
-        <v>0.1061002198242364</v>
+        <v>0.1226122339941358</v>
       </c>
       <c r="E14">
-        <v>0.1202873730552712</v>
+        <v>0.1359376432296808</v>
       </c>
       <c r="F14">
-        <v>0.1284925749415693</v>
+        <v>0.1477071322884018</v>
       </c>
       <c r="G14">
-        <v>0.09824532183812605</v>
+        <v>0.1162388377459698</v>
       </c>
       <c r="H14">
-        <v>0.1383415973010927</v>
-      </c>
-      <c r="I14">
-        <v>0.1303652336028337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.158768093985707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.09169682076295503</v>
+        <v>0.1027069025566448</v>
       </c>
       <c r="C15">
-        <v>0.1667357111380959</v>
+        <v>0.1865833805929164</v>
       </c>
       <c r="D15">
-        <v>0.1232016649945909</v>
+        <v>0.1397162229452851</v>
       </c>
       <c r="E15">
-        <v>0.1254027478403359</v>
+        <v>0.1341936235986632</v>
       </c>
       <c r="F15">
-        <v>0.1430141109955664</v>
+        <v>0.1701348204518058</v>
       </c>
       <c r="G15">
-        <v>0.1513038140218827</v>
+        <v>0.171198210097574</v>
       </c>
       <c r="H15">
-        <v>0.08380460264205605</v>
-      </c>
-      <c r="I15">
-        <v>0.1148405276045171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.09546683975711069</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1469198844411479</v>
+        <v>0.1665001271059276</v>
       </c>
       <c r="C16">
-        <v>0.1357899181732459</v>
+        <v>0.1542517551711698</v>
       </c>
       <c r="D16">
-        <v>0.1317643290833159</v>
+        <v>0.1495565224665142</v>
       </c>
       <c r="E16">
-        <v>0.1131564422879332</v>
+        <v>0.1284536428841772</v>
       </c>
       <c r="F16">
-        <v>0.07253416220563617</v>
+        <v>0.0835063568061957</v>
       </c>
       <c r="G16">
-        <v>0.1387384544377977</v>
+        <v>0.1563696531459861</v>
       </c>
       <c r="H16">
-        <v>0.1392457432334824</v>
-      </c>
-      <c r="I16">
-        <v>0.121851066137441</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.1613619424200295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1558954742070411</v>
+        <v>0.1796242565327832</v>
       </c>
       <c r="C17">
-        <v>0.1347818514654462</v>
+        <v>0.150057763464749</v>
       </c>
       <c r="D17">
-        <v>0.1068007316128912</v>
+        <v>0.1206942930462747</v>
       </c>
       <c r="E17">
-        <v>0.1146463378993828</v>
+        <v>0.1271849464569116</v>
       </c>
       <c r="F17">
-        <v>0.08347410858048764</v>
+        <v>0.0989292090018007</v>
       </c>
       <c r="G17">
-        <v>0.154846759197835</v>
+        <v>0.1747620270789958</v>
       </c>
       <c r="H17">
-        <v>0.1268039846361039</v>
-      </c>
-      <c r="I17">
-        <v>0.1227507524008121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.1487475044184851</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1142312835680926</v>
+        <v>0.1153569966375441</v>
       </c>
       <c r="C18">
-        <v>0.09368002571402953</v>
+        <v>0.09833718169737667</v>
       </c>
       <c r="D18">
-        <v>0.1401971578867016</v>
+        <v>0.1486758007509237</v>
       </c>
       <c r="E18">
-        <v>0.1349189078756607</v>
+        <v>0.1559474240624948</v>
       </c>
       <c r="F18">
-        <v>0.2374048620383103</v>
+        <v>0.2514381883529972</v>
       </c>
       <c r="G18">
-        <v>0.07050013073805111</v>
+        <v>0.08241251394507011</v>
       </c>
       <c r="H18">
-        <v>0.1291731051832817</v>
-      </c>
-      <c r="I18">
-        <v>0.07989452699587232</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.1478318945535934</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1584256717395679</v>
+        <v>0.203003516497872</v>
       </c>
       <c r="C19">
-        <v>0.1145539307206587</v>
+        <v>0.1231337743030802</v>
       </c>
       <c r="D19">
-        <v>0.1022816530076934</v>
+        <v>0.1138789967365202</v>
       </c>
       <c r="E19">
-        <v>0.1509818421653921</v>
+        <v>0.1766570768234286</v>
       </c>
       <c r="F19">
-        <v>0.1577787559943662</v>
+        <v>0.1871712502223738</v>
       </c>
       <c r="G19">
-        <v>0.06645696775267235</v>
+        <v>0.07316687161336503</v>
       </c>
       <c r="H19">
-        <v>0.1091495805687843</v>
-      </c>
-      <c r="I19">
-        <v>0.140371598050865</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.1229885138033601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1341735930243061</v>
+        <v>0.1471828696065409</v>
       </c>
       <c r="C20">
-        <v>0.1168417940806003</v>
+        <v>0.133946097501517</v>
       </c>
       <c r="D20">
-        <v>0.1228173007566189</v>
+        <v>0.1433086794202994</v>
       </c>
       <c r="E20">
-        <v>0.1305147920749773</v>
+        <v>0.1494826927461446</v>
       </c>
       <c r="F20">
-        <v>0.1075452714759672</v>
+        <v>0.1254652679253859</v>
       </c>
       <c r="G20">
-        <v>0.1354884172602582</v>
+        <v>0.1493829142414747</v>
       </c>
       <c r="H20">
-        <v>0.1378062958437082</v>
-      </c>
-      <c r="I20">
-        <v>0.1148125354835639</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.1512314785586377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1069401089588605</v>
+        <v>0.1407057380405519</v>
       </c>
       <c r="C21">
-        <v>0.1406424395442815</v>
+        <v>0.1650676260189232</v>
       </c>
       <c r="D21">
-        <v>0.04336945027032731</v>
+        <v>0.05125904300237512</v>
       </c>
       <c r="E21">
-        <v>0.1113430920298321</v>
+        <v>0.1336428602286701</v>
       </c>
       <c r="F21">
-        <v>0.04671917206106647</v>
+        <v>0.05313317987156443</v>
       </c>
       <c r="G21">
-        <v>0.2000417032169702</v>
+        <v>0.2376671142073224</v>
       </c>
       <c r="H21">
-        <v>0.1730610847131001</v>
-      </c>
-      <c r="I21">
-        <v>0.177882949205562</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.2185244386305928</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1489514157231745</v>
+        <v>0.1759912447660942</v>
       </c>
       <c r="C22">
-        <v>0.09511258353181369</v>
+        <v>0.1157327758319931</v>
       </c>
       <c r="D22">
-        <v>0.1011613483028974</v>
+        <v>0.1227248873312262</v>
       </c>
       <c r="E22">
-        <v>0.1186351518980674</v>
+        <v>0.1347949182107326</v>
       </c>
       <c r="F22">
-        <v>0.117674562389308</v>
+        <v>0.140030919447101</v>
       </c>
       <c r="G22">
-        <v>0.07668590364703505</v>
+        <v>0.09112309217453723</v>
       </c>
       <c r="H22">
-        <v>0.1953220913420232</v>
-      </c>
-      <c r="I22">
-        <v>0.1464569431656807</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.2196021622383157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1454100099920682</v>
+        <v>0.1606533630209293</v>
       </c>
       <c r="C23">
-        <v>0.1187989837754302</v>
+        <v>0.1312445546557707</v>
       </c>
       <c r="D23">
-        <v>0.1405052016808093</v>
+        <v>0.1546281004978478</v>
       </c>
       <c r="E23">
-        <v>0.1164273148598259</v>
+        <v>0.128113004499914</v>
       </c>
       <c r="F23">
-        <v>0.1120882170979365</v>
+        <v>0.1222977513175894</v>
       </c>
       <c r="G23">
-        <v>0.1372840205616281</v>
+        <v>0.1551299858163118</v>
       </c>
       <c r="H23">
-        <v>0.1317239845317196</v>
-      </c>
-      <c r="I23">
-        <v>0.09776226750058205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.1479332401916369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1633898661619946</v>
+        <v>0.1858928542556273</v>
       </c>
       <c r="C24">
-        <v>0.1378191434622806</v>
+        <v>0.1564030187672307</v>
       </c>
       <c r="D24">
-        <v>0.1005295229146885</v>
+        <v>0.1131264907574261</v>
       </c>
       <c r="E24">
-        <v>0.09736998783366581</v>
+        <v>0.1078935907650778</v>
       </c>
       <c r="F24">
-        <v>0.06667362071847073</v>
+        <v>0.07812120347401329</v>
       </c>
       <c r="G24">
-        <v>0.1749796963352082</v>
+        <v>0.2022319693361434</v>
       </c>
       <c r="H24">
-        <v>0.1333096592950963</v>
-      </c>
-      <c r="I24">
-        <v>0.1259285032785954</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.1563308726444815</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1428073971084171</v>
+        <v>0.1678883601710269</v>
       </c>
       <c r="C25">
-        <v>0.1285695176109952</v>
+        <v>0.1485598034667446</v>
       </c>
       <c r="D25">
-        <v>0.1165965599802921</v>
+        <v>0.1285968185877468</v>
       </c>
       <c r="E25">
-        <v>0.1076524747921575</v>
+        <v>0.1181575740711728</v>
       </c>
       <c r="F25">
-        <v>0.05472458956604984</v>
+        <v>0.06022103079417632</v>
       </c>
       <c r="G25">
-        <v>0.1611880761370812</v>
+        <v>0.1889015432945617</v>
       </c>
       <c r="H25">
-        <v>0.1636110158131817</v>
-      </c>
-      <c r="I25">
-        <v>0.1248503689918253</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.1876748696145709</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.1109296828331529</v>
+        <v>0.1344330524011023</v>
       </c>
       <c r="C26">
-        <v>0.1357809570362883</v>
+        <v>0.1571359939807569</v>
       </c>
       <c r="D26">
-        <v>0.1137489946340268</v>
+        <v>0.135021927079967</v>
       </c>
       <c r="E26">
-        <v>0.1403165032203389</v>
+        <v>0.1596409570184043</v>
       </c>
       <c r="F26">
-        <v>0.1471801092162434</v>
+        <v>0.1733553250411969</v>
       </c>
       <c r="G26">
-        <v>0.1098685519668104</v>
+        <v>0.1210866509208636</v>
       </c>
       <c r="H26">
-        <v>0.1028792164324362</v>
-      </c>
-      <c r="I26">
-        <v>0.139295984660703</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.119326093557709</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.1672783371648206</v>
+        <v>0.1989548623504613</v>
       </c>
       <c r="C27">
-        <v>0.1177463786917492</v>
+        <v>0.1319185126756096</v>
       </c>
       <c r="D27">
-        <v>0.09498634541571971</v>
+        <v>0.108717766239726</v>
       </c>
       <c r="E27">
-        <v>0.09926049253082593</v>
+        <v>0.1118634826165973</v>
       </c>
       <c r="F27">
-        <v>0.05632312566077763</v>
+        <v>0.0659854022792587</v>
       </c>
       <c r="G27">
-        <v>0.1710227124577356</v>
+        <v>0.1991158169191442</v>
       </c>
       <c r="H27">
-        <v>0.1563387659572125</v>
-      </c>
-      <c r="I27">
-        <v>0.1370438421211588</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>0.1834441569192027</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.1549762952076176</v>
+        <v>0.1716195212328447</v>
       </c>
       <c r="C28">
-        <v>0.1163509990376737</v>
+        <v>0.1279166162591983</v>
       </c>
       <c r="D28">
-        <v>0.1087364054009843</v>
+        <v>0.1226490312750733</v>
       </c>
       <c r="E28">
-        <v>0.1171606574639763</v>
+        <v>0.1335575229130471</v>
       </c>
       <c r="F28">
-        <v>0.06744114106394018</v>
+        <v>0.0775178205392915</v>
       </c>
       <c r="G28">
-        <v>0.1597847441875132</v>
+        <v>0.1808574162896343</v>
       </c>
       <c r="H28">
-        <v>0.1599129157048837</v>
-      </c>
-      <c r="I28">
-        <v>0.1156368419334111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.1858820714909108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.183253827029111</v>
+        <v>0.2010629156199718</v>
       </c>
       <c r="C29">
-        <v>0.1244644319168624</v>
+        <v>0.1411838621371431</v>
       </c>
       <c r="D29">
-        <v>0.1193434339682115</v>
+        <v>0.127878493439128</v>
       </c>
       <c r="E29">
-        <v>0.105678765693377</v>
+        <v>0.115154446325487</v>
       </c>
       <c r="F29">
-        <v>0.05430816347109033</v>
+        <v>0.0583314447799706</v>
       </c>
       <c r="G29">
-        <v>0.1669077070040167</v>
+        <v>0.1993325191003367</v>
       </c>
       <c r="H29">
-        <v>0.1418340249843328</v>
-      </c>
-      <c r="I29">
-        <v>0.1042096459329984</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.1570563185979627</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.1441546025086809</v>
+        <v>0.1636937883231845</v>
       </c>
       <c r="C30">
-        <v>0.1219731000435627</v>
+        <v>0.1386148349594152</v>
       </c>
       <c r="D30">
-        <v>0.1258356216046879</v>
+        <v>0.139389558639574</v>
       </c>
       <c r="E30">
-        <v>0.123254226848129</v>
+        <v>0.1388456534147562</v>
       </c>
       <c r="F30">
-        <v>0.09638027178549098</v>
+        <v>0.1113276994323021</v>
       </c>
       <c r="G30">
-        <v>0.1346892923630349</v>
+        <v>0.1529103470697621</v>
       </c>
       <c r="H30">
-        <v>0.13763168631562</v>
-      </c>
-      <c r="I30">
-        <v>0.1160811985307937</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.155218118161006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.1479969353003596</v>
+        <v>0.1693953479123086</v>
       </c>
       <c r="C31">
-        <v>0.1206450960956032</v>
+        <v>0.1347946559008469</v>
       </c>
       <c r="D31">
-        <v>0.1258821737262893</v>
+        <v>0.1379962893064764</v>
       </c>
       <c r="E31">
-        <v>0.1168083358407501</v>
+        <v>0.1318733729561508</v>
       </c>
       <c r="F31">
-        <v>0.08622890044102009</v>
+        <v>0.101655696694398</v>
       </c>
       <c r="G31">
-        <v>0.1466059832728286</v>
+        <v>0.1661985730394751</v>
       </c>
       <c r="H31">
-        <v>0.1369442209489334</v>
-      </c>
-      <c r="I31">
-        <v>0.1188883543742158</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.1580860641903443</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.08064063429277007</v>
+        <v>0.0851949640391948</v>
       </c>
       <c r="C32">
-        <v>0.1378104403947674</v>
+        <v>0.1597868127366883</v>
       </c>
       <c r="D32">
-        <v>0.136373335365387</v>
+        <v>0.1500511688658894</v>
       </c>
       <c r="E32">
-        <v>0.08635985709448557</v>
+        <v>0.09517178225330741</v>
       </c>
       <c r="F32">
-        <v>0.2547854313488563</v>
+        <v>0.310026362714609</v>
       </c>
       <c r="G32">
-        <v>0.0700257492527562</v>
+        <v>0.08077156603522401</v>
       </c>
       <c r="H32">
-        <v>0.1083259362407312</v>
-      </c>
-      <c r="I32">
-        <v>0.1256786160102462</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.1189973433550871</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.1429585366701719</v>
+        <v>0.1640001649533625</v>
       </c>
       <c r="C33">
-        <v>0.1373184997781488</v>
+        <v>0.1546896700624701</v>
       </c>
       <c r="D33">
-        <v>0.1112810255325545</v>
+        <v>0.1289088103977629</v>
       </c>
       <c r="E33">
-        <v>0.1199323058379791</v>
+        <v>0.1397684383353264</v>
       </c>
       <c r="F33">
-        <v>0.06541413709270154</v>
+        <v>0.07542008112645185</v>
       </c>
       <c r="G33">
-        <v>0.1421405120440314</v>
+        <v>0.161279087205723</v>
       </c>
       <c r="H33">
-        <v>0.1533950515211979</v>
-      </c>
-      <c r="I33">
-        <v>0.1275599315232148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.1759337479189033</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.1246847720841091</v>
+        <v>0.1467588599134017</v>
       </c>
       <c r="C34">
-        <v>0.1294326657134213</v>
+        <v>0.1487250517952784</v>
       </c>
       <c r="D34">
-        <v>0.1264535951775005</v>
+        <v>0.143382390285067</v>
       </c>
       <c r="E34">
-        <v>0.1223592994239752</v>
+        <v>0.1389225622103489</v>
       </c>
       <c r="F34">
-        <v>0.1250269398851895</v>
+        <v>0.1429050158350593</v>
       </c>
       <c r="G34">
-        <v>0.118968385710982</v>
+        <v>0.134504304100923</v>
       </c>
       <c r="H34">
-        <v>0.1240294519853208</v>
-      </c>
-      <c r="I34">
-        <v>0.1290448900195015</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.1448018158599217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.1225935159698161</v>
+        <v>0.1428403149818439</v>
       </c>
       <c r="C35">
-        <v>0.1131334505724306</v>
+        <v>0.1284775222462643</v>
       </c>
       <c r="D35">
-        <v>0.1240369384976576</v>
+        <v>0.1386157603483102</v>
       </c>
       <c r="E35">
-        <v>0.1373717697205738</v>
+        <v>0.1495883810836184</v>
       </c>
       <c r="F35">
-        <v>0.1776106830210627</v>
+        <v>0.1945086864726662</v>
       </c>
       <c r="G35">
-        <v>0.1069874940678582</v>
+        <v>0.1196252840586093</v>
       </c>
       <c r="H35">
-        <v>0.11428175758213</v>
-      </c>
-      <c r="I35">
-        <v>0.103984390568471</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.1263440508086877</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.133163494124542</v>
+        <v>0.1552966188569695</v>
       </c>
       <c r="C36">
-        <v>0.1141325172601402</v>
+        <v>0.1310515362984478</v>
       </c>
       <c r="D36">
-        <v>0.1159426062725668</v>
+        <v>0.1392531893055618</v>
       </c>
       <c r="E36">
-        <v>0.08001071835060766</v>
+        <v>0.09072773929267142</v>
       </c>
       <c r="F36">
-        <v>0.2093768982404468</v>
+        <v>0.2708277284202283</v>
       </c>
       <c r="G36">
-        <v>0.04010980514885914</v>
+        <v>0.04783223784271775</v>
       </c>
       <c r="H36">
-        <v>0.1429713174927866</v>
-      </c>
-      <c r="I36">
-        <v>0.1642926431100508</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.1650109499834034</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.1583701674206033</v>
+        <v>0.1760904965979801</v>
       </c>
       <c r="C37">
-        <v>0.1309612287678934</v>
+        <v>0.1441347333323643</v>
       </c>
       <c r="D37">
-        <v>0.1271844282942017</v>
+        <v>0.1440450848292699</v>
       </c>
       <c r="E37">
-        <v>0.119578306844065</v>
+        <v>0.1356301856851649</v>
       </c>
       <c r="F37">
-        <v>0.06380161020668328</v>
+        <v>0.07264523239547288</v>
       </c>
       <c r="G37">
-        <v>0.1435411800724428</v>
+        <v>0.1646986414404192</v>
       </c>
       <c r="H37">
-        <v>0.1415120904397811</v>
-      </c>
-      <c r="I37">
-        <v>0.1150509879543293</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>0.1627556257193288</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.1517790559113607</v>
+        <v>0.1773714390530592</v>
       </c>
       <c r="C38">
-        <v>0.1190230628929652</v>
+        <v>0.1361435667872088</v>
       </c>
       <c r="D38">
-        <v>0.1186555778860396</v>
+        <v>0.1360117138242337</v>
       </c>
       <c r="E38">
-        <v>0.1134784542106166</v>
+        <v>0.1289442406807526</v>
       </c>
       <c r="F38">
-        <v>0.0962413448590286</v>
+        <v>0.1079923061157375</v>
       </c>
       <c r="G38">
-        <v>0.1177980985126285</v>
+        <v>0.1357649121141754</v>
       </c>
       <c r="H38">
-        <v>0.1503599682888081</v>
-      </c>
-      <c r="I38">
-        <v>0.1326644374385527</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.1777718214248326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.1351829637957877</v>
+        <v>0.1547485547357403</v>
       </c>
       <c r="C39">
-        <v>0.1171678763463557</v>
+        <v>0.1338337557636576</v>
       </c>
       <c r="D39">
-        <v>0.1274029790694663</v>
+        <v>0.1476936611239033</v>
       </c>
       <c r="E39">
-        <v>0.1227639848155145</v>
+        <v>0.1417889379220521</v>
       </c>
       <c r="F39">
-        <v>0.1185118984642031</v>
+        <v>0.1328130515163501</v>
       </c>
       <c r="G39">
-        <v>0.1242749370189643</v>
+        <v>0.1402380571647454</v>
       </c>
       <c r="H39">
-        <v>0.1321743856805301</v>
-      </c>
-      <c r="I39">
-        <v>0.1225209748091782</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.1488839817735512</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.142488528404921</v>
+        <v>0.1645804008476184</v>
       </c>
       <c r="C40">
-        <v>0.1202471843866876</v>
+        <v>0.13725356227865</v>
       </c>
       <c r="D40">
-        <v>0.1302033545149363</v>
+        <v>0.1480881435917569</v>
       </c>
       <c r="E40">
-        <v>0.1150387457803671</v>
+        <v>0.1284064404650748</v>
       </c>
       <c r="F40">
-        <v>0.1193427894690212</v>
+        <v>0.1308790078943851</v>
       </c>
       <c r="G40">
-        <v>0.1180233531778255</v>
+        <v>0.1363765804190293</v>
       </c>
       <c r="H40">
-        <v>0.1373696630137048</v>
-      </c>
-      <c r="I40">
-        <v>0.1172863812525367</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.1544158645034855</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.1381172485381109</v>
+        <v>0.1570151222753484</v>
       </c>
       <c r="C41">
-        <v>0.1195499951009629</v>
+        <v>0.1363018939586672</v>
       </c>
       <c r="D41">
-        <v>0.1487709174327898</v>
+        <v>0.1710243443430195</v>
       </c>
       <c r="E41">
-        <v>0.118206064706101</v>
+        <v>0.1329202370042069</v>
       </c>
       <c r="F41">
-        <v>0.07706755383403679</v>
+        <v>0.08539019428236341</v>
       </c>
       <c r="G41">
-        <v>0.134173517629004</v>
+        <v>0.1568565484529635</v>
       </c>
       <c r="H41">
-        <v>0.1417635438444662</v>
-      </c>
-      <c r="I41">
-        <v>0.1223511589145283</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.1604916596834311</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.1542238090026359</v>
+        <v>0.180154187852668</v>
       </c>
       <c r="C42">
-        <v>0.1139818727569796</v>
+        <v>0.1294066162627487</v>
       </c>
       <c r="D42">
-        <v>0.1155284134023603</v>
+        <v>0.1289441833133445</v>
       </c>
       <c r="E42">
-        <v>0.114168059663456</v>
+        <v>0.1273577032122029</v>
       </c>
       <c r="F42">
-        <v>0.0791205823997906</v>
+        <v>0.09779091638862804</v>
       </c>
       <c r="G42">
-        <v>0.1632620381081177</v>
+        <v>0.184718020103603</v>
       </c>
       <c r="H42">
-        <v>0.1286993124049459</v>
-      </c>
-      <c r="I42">
-        <v>0.1310159122617139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.1516283728668049</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.1472553985500434</v>
+        <v>0.1672589866675169</v>
       </c>
       <c r="C43">
-        <v>0.1271623698496514</v>
+        <v>0.13730594445792</v>
       </c>
       <c r="D43">
-        <v>0.1217952538710973</v>
+        <v>0.1362316698386001</v>
       </c>
       <c r="E43">
-        <v>0.1213033587812749</v>
+        <v>0.1365549371333489</v>
       </c>
       <c r="F43">
-        <v>0.06714738943279612</v>
+        <v>0.07661665395532238</v>
       </c>
       <c r="G43">
-        <v>0.1684890975721373</v>
+        <v>0.1931966048709417</v>
       </c>
       <c r="H43">
-        <v>0.1337728244235668</v>
-      </c>
-      <c r="I43">
-        <v>0.1130743075194328</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.15283520307635</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.1430240412185917</v>
+        <v>0.1578361100791003</v>
       </c>
       <c r="C44">
-        <v>0.1138190678201903</v>
+        <v>0.1365054636683059</v>
       </c>
       <c r="D44">
-        <v>0.1210656961954195</v>
+        <v>0.1441175953586596</v>
       </c>
       <c r="E44">
-        <v>0.1381920989973352</v>
+        <v>0.1557180181324866</v>
       </c>
       <c r="F44">
-        <v>0.1290955107192813</v>
+        <v>0.1584640299852698</v>
       </c>
       <c r="G44">
-        <v>0.1025172173902293</v>
+        <v>0.10933479992326</v>
       </c>
       <c r="H44">
-        <v>0.1216625234448396</v>
-      </c>
-      <c r="I44">
-        <v>0.1306238442141131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.138023982852918</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.1794845547000948</v>
+        <v>0.2040910122952888</v>
       </c>
       <c r="C45">
-        <v>0.1215733950982729</v>
+        <v>0.1351942265855709</v>
       </c>
       <c r="D45">
-        <v>0.1423106508702615</v>
+        <v>0.162425391058524</v>
       </c>
       <c r="E45">
-        <v>0.1021104547366382</v>
+        <v>0.1144314959421823</v>
       </c>
       <c r="F45">
-        <v>0.0582601526602707</v>
+        <v>0.06885606431593833</v>
       </c>
       <c r="G45">
-        <v>0.1288304506978946</v>
+        <v>0.1552768579945528</v>
       </c>
       <c r="H45">
-        <v>0.1388149694427304</v>
-      </c>
-      <c r="I45">
-        <v>0.128615371793837</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.1597249518079428</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.1445088704196653</v>
+        <v>0.1648801920671128</v>
       </c>
       <c r="C46">
-        <v>0.1182405043086555</v>
+        <v>0.1332311453396773</v>
       </c>
       <c r="D46">
-        <v>0.1443441714916822</v>
+        <v>0.1603388589184462</v>
       </c>
       <c r="E46">
-        <v>0.1403684936021733</v>
+        <v>0.1603294620692424</v>
       </c>
       <c r="F46">
-        <v>0.06587305115684983</v>
+        <v>0.07525262252279487</v>
       </c>
       <c r="G46">
-        <v>0.1587886665254738</v>
+        <v>0.1792247561991258</v>
       </c>
       <c r="H46">
-        <v>0.106110111260218</v>
-      </c>
-      <c r="I46">
-        <v>0.121766131235282</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.1267429628836005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.1171860465848355</v>
+        <v>0.1258506682191655</v>
       </c>
       <c r="C47">
-        <v>0.1135364436827764</v>
+        <v>0.1250925869806835</v>
       </c>
       <c r="D47">
-        <v>0.1242461908804023</v>
+        <v>0.1446812350698836</v>
       </c>
       <c r="E47">
-        <v>0.1282700923576449</v>
+        <v>0.1511397322938009</v>
       </c>
       <c r="F47">
-        <v>0.1393399505118562</v>
+        <v>0.1670765469039537</v>
       </c>
       <c r="G47">
-        <v>0.1129517942176934</v>
+        <v>0.1226505463117791</v>
       </c>
       <c r="H47">
-        <v>0.1393322860433953</v>
-      </c>
-      <c r="I47">
-        <v>0.1251371957213959</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.1635086842207337</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.1572303158012101</v>
+        <v>0.1821095529095356</v>
       </c>
       <c r="C48">
-        <v>0.1281853863672328</v>
+        <v>0.1457767327661116</v>
       </c>
       <c r="D48">
-        <v>0.1160959286486984</v>
+        <v>0.1310437764083399</v>
       </c>
       <c r="E48">
-        <v>0.1125171401985341</v>
+        <v>0.1259048539202914</v>
       </c>
       <c r="F48">
-        <v>0.08519403197524107</v>
+        <v>0.09379314394941064</v>
       </c>
       <c r="G48">
-        <v>0.1312896605028469</v>
+        <v>0.152273079883585</v>
       </c>
       <c r="H48">
-        <v>0.1508268344488064</v>
-      </c>
-      <c r="I48">
-        <v>0.1186607020574302</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.1690988601627258</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.08756959900981398</v>
+        <v>0.06986280837950702</v>
       </c>
       <c r="C49">
-        <v>0.131781276246857</v>
+        <v>0.1505144893951167</v>
       </c>
       <c r="D49">
-        <v>0.1068881517436259</v>
+        <v>0.1096954281343923</v>
       </c>
       <c r="E49">
-        <v>0.1028452874820438</v>
+        <v>0.09622293364211117</v>
       </c>
       <c r="F49">
-        <v>0.3017128911019302</v>
+        <v>0.411561445856847</v>
       </c>
       <c r="G49">
-        <v>0.05889554833654401</v>
+        <v>0.05737828264937508</v>
       </c>
       <c r="H49">
-        <v>0.1202271989276449</v>
-      </c>
-      <c r="I49">
-        <v>0.09008004715154019</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.1047646119426508</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.09045579456992998</v>
+        <v>0.09719812980070326</v>
       </c>
       <c r="C50">
-        <v>0.1400955662040639</v>
+        <v>0.154662532837535</v>
       </c>
       <c r="D50">
-        <v>0.1407070733047959</v>
+        <v>0.1522740833760532</v>
       </c>
       <c r="E50">
-        <v>0.1124062877842489</v>
+        <v>0.1235958193296107</v>
       </c>
       <c r="F50">
-        <v>0.2237808610190216</v>
+        <v>0.2497791354512034</v>
       </c>
       <c r="G50">
-        <v>0.09021102968519298</v>
+        <v>0.1007561943283602</v>
       </c>
       <c r="H50">
-        <v>0.1129939519287446</v>
-      </c>
-      <c r="I50">
-        <v>0.08934943550400225</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.1217341048765344</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.1359943924299058</v>
+        <v>0.1559597876395878</v>
       </c>
       <c r="C51">
-        <v>0.1171212200653916</v>
+        <v>0.1310451543545197</v>
       </c>
       <c r="D51">
-        <v>0.1187084308348926</v>
+        <v>0.1367801328587446</v>
       </c>
       <c r="E51">
-        <v>0.1115762475344366</v>
+        <v>0.1288946120187121</v>
       </c>
       <c r="F51">
-        <v>0.06284577786054146</v>
+        <v>0.07424603856603046</v>
       </c>
       <c r="G51">
-        <v>0.1772559183746211</v>
+        <v>0.2026135533335628</v>
       </c>
       <c r="H51">
-        <v>0.1514540637781636</v>
-      </c>
-      <c r="I51">
-        <v>0.1250439491220474</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.1704607212288424</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.1473159433721476</v>
+        <v>0.1689887060222381</v>
       </c>
       <c r="C52">
-        <v>0.1196955797091705</v>
+        <v>0.1406333412345104</v>
       </c>
       <c r="D52">
-        <v>0.1108958477487547</v>
+        <v>0.1288770702090351</v>
       </c>
       <c r="E52">
-        <v>0.1193945022605213</v>
+        <v>0.1394198255842763</v>
       </c>
       <c r="F52">
-        <v>0.06422952184392579</v>
+        <v>0.07570587680091791</v>
       </c>
       <c r="G52">
-        <v>0.1504742875590065</v>
+        <v>0.17393507120692</v>
       </c>
       <c r="H52">
-        <v>0.1549419859946539</v>
-      </c>
-      <c r="I52">
-        <v>0.1330523315118197</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.1724401089421021</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.1291542336389691</v>
+        <v>0.1469372429786907</v>
       </c>
       <c r="C53">
-        <v>0.1379846574402513</v>
+        <v>0.1515894750398004</v>
       </c>
       <c r="D53">
-        <v>0.1152076401332144</v>
+        <v>0.1275695809752944</v>
       </c>
       <c r="E53">
-        <v>0.1244267740902642</v>
+        <v>0.1451084673090901</v>
       </c>
       <c r="F53">
-        <v>0.06693070408572402</v>
+        <v>0.07695132354247626</v>
       </c>
       <c r="G53">
-        <v>0.1494126828429817</v>
+        <v>0.1788674819601267</v>
       </c>
       <c r="H53">
-        <v>0.1518188850225388</v>
-      </c>
-      <c r="I53">
-        <v>0.1250644227460564</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.1729764281945216</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.1534855670379331</v>
+        <v>0.18053771780987</v>
       </c>
       <c r="C54">
-        <v>0.09772240676353906</v>
+        <v>0.1104270991611219</v>
       </c>
       <c r="D54">
-        <v>0.09819947331517342</v>
+        <v>0.1107530821605906</v>
       </c>
       <c r="E54">
-        <v>0.1191884036174547</v>
+        <v>0.1414896498646243</v>
       </c>
       <c r="F54">
-        <v>0.1384914988579544</v>
+        <v>0.1584063614778602</v>
       </c>
       <c r="G54">
-        <v>0.1148619299020533</v>
+        <v>0.1304864338665437</v>
       </c>
       <c r="H54">
-        <v>0.1467911980454989</v>
-      </c>
-      <c r="I54">
-        <v>0.1312595224603932</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.1678996556593893</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.116594879848379</v>
+        <v>0.1387825706832025</v>
       </c>
       <c r="C55">
-        <v>0.1185361361557314</v>
+        <v>0.1361358506911244</v>
       </c>
       <c r="D55">
-        <v>0.1456997775458509</v>
+        <v>0.1664104409758811</v>
       </c>
       <c r="E55">
-        <v>0.1414464696244298</v>
+        <v>0.1592959079110754</v>
       </c>
       <c r="F55">
-        <v>0.1488629184612124</v>
+        <v>0.1775939329820614</v>
       </c>
       <c r="G55">
-        <v>0.09114964360678497</v>
+        <v>0.1001688907742884</v>
       </c>
       <c r="H55">
-        <v>0.1057878940303112</v>
-      </c>
-      <c r="I55">
-        <v>0.1319222807273001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.1216124059823667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.136829748098158</v>
+        <v>0.1574188481594948</v>
       </c>
       <c r="C56">
-        <v>0.09578660990222246</v>
+        <v>0.1116048782632573</v>
       </c>
       <c r="D56">
-        <v>0.1239109094610225</v>
+        <v>0.143164494877087</v>
       </c>
       <c r="E56">
-        <v>0.1313307313190265</v>
+        <v>0.1450561030157079</v>
       </c>
       <c r="F56">
-        <v>0.07820941969551176</v>
+        <v>0.0920918536360479</v>
       </c>
       <c r="G56">
-        <v>0.1885177672568696</v>
+        <v>0.2031627821756757</v>
       </c>
       <c r="H56">
-        <v>0.1301301227744836</v>
-      </c>
-      <c r="I56">
-        <v>0.1152846914927054</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.1475010398727294</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.1504529575709433</v>
+        <v>0.1730977332719185</v>
       </c>
       <c r="C57">
-        <v>0.09872384386951108</v>
+        <v>0.1243503191165747</v>
       </c>
       <c r="D57">
-        <v>0.1137507369787438</v>
+        <v>0.1317882472039852</v>
       </c>
       <c r="E57">
-        <v>0.1512017843419817</v>
+        <v>0.1652834760064801</v>
       </c>
       <c r="F57">
-        <v>0.1207178701538234</v>
+        <v>0.1445496594817529</v>
       </c>
       <c r="G57">
-        <v>0.08944681876658118</v>
+        <v>0.1026699901217558</v>
       </c>
       <c r="H57">
-        <v>0.138500060378312</v>
-      </c>
-      <c r="I57">
-        <v>0.1372059279401034</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>0.1582605747975328</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.12858478608858</v>
+        <v>0.1447786045788791</v>
       </c>
       <c r="C58">
-        <v>0.1040534596729807</v>
+        <v>0.117621647982341</v>
       </c>
       <c r="D58">
-        <v>0.121727714559716</v>
+        <v>0.1332748940160489</v>
       </c>
       <c r="E58">
-        <v>0.1339037778305958</v>
+        <v>0.1499777893229159</v>
       </c>
       <c r="F58">
-        <v>0.2114933743299205</v>
+        <v>0.2272014031806685</v>
       </c>
       <c r="G58">
-        <v>0.09008338765719817</v>
+        <v>0.1049009816656619</v>
       </c>
       <c r="H58">
-        <v>0.1063736914911419</v>
-      </c>
-      <c r="I58">
-        <v>0.1037798083698669</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.1222446792534845</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.1163276365465954</v>
+        <v>0.1334310745869652</v>
       </c>
       <c r="C59">
-        <v>0.1069795592770169</v>
+        <v>0.1213777104855024</v>
       </c>
       <c r="D59">
-        <v>0.1309718806579917</v>
+        <v>0.1463585008423127</v>
       </c>
       <c r="E59">
-        <v>0.1380941005032768</v>
+        <v>0.1536323267990686</v>
       </c>
       <c r="F59">
-        <v>0.1649846253535479</v>
+        <v>0.1858045679726171</v>
       </c>
       <c r="G59">
-        <v>0.1088030665504297</v>
+        <v>0.1231888001012687</v>
       </c>
       <c r="H59">
-        <v>0.121281498079044</v>
-      </c>
-      <c r="I59">
-        <v>0.1125576330320976</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.1362070192122652</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.093096244932222</v>
+        <v>0.1027207767217376</v>
       </c>
       <c r="C60">
-        <v>0.1392720827565154</v>
+        <v>0.1536710065212369</v>
       </c>
       <c r="D60">
-        <v>0.08810985841504919</v>
+        <v>0.09721881831903771</v>
       </c>
       <c r="E60">
-        <v>0.08998812426265869</v>
+        <v>0.09929128914077792</v>
       </c>
       <c r="F60">
-        <v>0.2650775958507016</v>
+        <v>0.2838815708909456</v>
       </c>
       <c r="G60">
-        <v>0.0702339769424465</v>
+        <v>0.07749464412292706</v>
       </c>
       <c r="H60">
-        <v>0.1683195787393875</v>
-      </c>
-      <c r="I60">
-        <v>0.08590253810101914</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.1857218942833371</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.09018140199701467</v>
+        <v>0.1053190622257922</v>
       </c>
       <c r="C61">
-        <v>0.1425749488348554</v>
+        <v>0.1598576954445299</v>
       </c>
       <c r="D61">
-        <v>0.1278896704600647</v>
+        <v>0.143493976257116</v>
       </c>
       <c r="E61">
-        <v>0.1473112239474436</v>
+        <v>0.1701102215349322</v>
       </c>
       <c r="F61">
-        <v>0.1327405569734136</v>
+        <v>0.1562450966985546</v>
       </c>
       <c r="G61">
-        <v>0.1057622421100624</v>
+        <v>0.1279224341259972</v>
       </c>
       <c r="H61">
-        <v>0.1203277652786799</v>
-      </c>
-      <c r="I61">
-        <v>0.1332121903984657</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.1370515137130778</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.1368390903725004</v>
+        <v>0.153329847059285</v>
       </c>
       <c r="C62">
-        <v>0.1224329855137919</v>
+        <v>0.1415618915047686</v>
       </c>
       <c r="D62">
-        <v>0.1133441578543141</v>
+        <v>0.1298812582716066</v>
       </c>
       <c r="E62">
-        <v>0.1230237638197454</v>
+        <v>0.1393852346260798</v>
       </c>
       <c r="F62">
-        <v>0.1128627014678251</v>
+        <v>0.1276206992622187</v>
       </c>
       <c r="G62">
-        <v>0.135447486799277</v>
+        <v>0.1523385587020148</v>
       </c>
       <c r="H62">
-        <v>0.1362956719417235</v>
-      </c>
-      <c r="I62">
-        <v>0.1197541422308226</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.1558825105740265</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.1514051219646365</v>
+        <v>0.1731375277477217</v>
       </c>
       <c r="C63">
-        <v>0.09090031626417226</v>
+        <v>0.09927203191648402</v>
       </c>
       <c r="D63">
-        <v>0.1202987062929068</v>
+        <v>0.141861837278976</v>
       </c>
       <c r="E63">
-        <v>0.1469041341943784</v>
+        <v>0.1622090034222253</v>
       </c>
       <c r="F63">
-        <v>0.05172089497387476</v>
+        <v>0.05504407655150302</v>
       </c>
       <c r="G63">
-        <v>0.1765418347113074</v>
+        <v>0.1974521555664141</v>
       </c>
       <c r="H63">
-        <v>0.1458549087671376</v>
-      </c>
-      <c r="I63">
-        <v>0.1163740828315862</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.171023367516676</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.1520835498028529</v>
+        <v>0.1755297529235589</v>
       </c>
       <c r="C64">
-        <v>0.105228668894706</v>
+        <v>0.1255321450239141</v>
       </c>
       <c r="D64">
-        <v>0.08319786557154933</v>
+        <v>0.1037365346185541</v>
       </c>
       <c r="E64">
-        <v>0.1354527459103075</v>
+        <v>0.1617025898207257</v>
       </c>
       <c r="F64">
-        <v>0.1113217896044161</v>
+        <v>0.1384140953294374</v>
       </c>
       <c r="G64">
-        <v>0.09552984533931881</v>
+        <v>0.1113317244809862</v>
       </c>
       <c r="H64">
-        <v>0.1542073110995013</v>
-      </c>
-      <c r="I64">
-        <v>0.1629782237773482</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.1837531578028235</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.121462578257414</v>
+        <v>0.1468201587333857</v>
       </c>
       <c r="C65">
-        <v>0.1335713833188388</v>
+        <v>0.1537404753942311</v>
       </c>
       <c r="D65">
-        <v>0.1223427683011281</v>
+        <v>0.1385649073955334</v>
       </c>
       <c r="E65">
-        <v>0.1234363461024316</v>
+        <v>0.1382589556173856</v>
       </c>
       <c r="F65">
-        <v>0.1376276737460939</v>
+        <v>0.1594525496442556</v>
       </c>
       <c r="G65">
-        <v>0.1043312592613026</v>
+        <v>0.1208706102551736</v>
       </c>
       <c r="H65">
-        <v>0.1231942998780617</v>
-      </c>
-      <c r="I65">
-        <v>0.1340336911347292</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.142292342960035</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.1090478339615505</v>
+        <v>0.1233874025682964</v>
       </c>
       <c r="C66">
-        <v>0.1601113151220012</v>
+        <v>0.1797808128069904</v>
       </c>
       <c r="D66">
-        <v>0.09906868601601067</v>
+        <v>0.1179125942826385</v>
       </c>
       <c r="E66">
-        <v>0.118980894068903</v>
+        <v>0.1391297746355512</v>
       </c>
       <c r="F66">
-        <v>0.152038496692973</v>
+        <v>0.1922759987045822</v>
       </c>
       <c r="G66">
-        <v>0.1047277224960793</v>
+        <v>0.121778654095977</v>
       </c>
       <c r="H66">
-        <v>0.1112636553875071</v>
-      </c>
-      <c r="I66">
-        <v>0.144761396254975</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.1257347629059642</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.1480474429171006</v>
+        <v>0.1638193741816932</v>
       </c>
       <c r="C67">
-        <v>0.08191612137369227</v>
+        <v>0.09398806755581375</v>
       </c>
       <c r="D67">
-        <v>0.146528904600055</v>
+        <v>0.164929543216829</v>
       </c>
       <c r="E67">
-        <v>0.1148457512184496</v>
+        <v>0.1309199921699142</v>
       </c>
       <c r="F67">
-        <v>0.06282393308257586</v>
+        <v>0.07512432182173572</v>
       </c>
       <c r="G67">
-        <v>0.2066391787457086</v>
+        <v>0.2395383868431295</v>
       </c>
       <c r="H67">
-        <v>0.1130347467954151</v>
-      </c>
-      <c r="I67">
-        <v>0.126163921267003</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.1316803142108848</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.0785753432874524</v>
+        <v>0.09183858926287873</v>
       </c>
       <c r="C68">
-        <v>0.1442783421229832</v>
+        <v>0.1615136569642236</v>
       </c>
       <c r="D68">
-        <v>0.1580422429880118</v>
+        <v>0.1852862003985044</v>
       </c>
       <c r="E68">
-        <v>0.1257073389296129</v>
+        <v>0.1548119107874306</v>
       </c>
       <c r="F68">
-        <v>0.1109559859793228</v>
+        <v>0.1371188408870546</v>
       </c>
       <c r="G68">
-        <v>0.1422368996431472</v>
+        <v>0.1604952836574403</v>
       </c>
       <c r="H68">
-        <v>0.09652999166155704</v>
-      </c>
-      <c r="I68">
-        <v>0.1436738553879126</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.1089355180424676</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.1203462533629935</v>
+        <v>0.1371099134985503</v>
       </c>
       <c r="C69">
-        <v>0.1218459667520416</v>
+        <v>0.1407126752243312</v>
       </c>
       <c r="D69">
-        <v>0.1283184316415179</v>
+        <v>0.1468472378473606</v>
       </c>
       <c r="E69">
-        <v>0.1376633575591789</v>
+        <v>0.1560994800353871</v>
       </c>
       <c r="F69">
-        <v>0.1283797881085816</v>
+        <v>0.1472760729155474</v>
       </c>
       <c r="G69">
-        <v>0.1257738714574328</v>
+        <v>0.1399936495698648</v>
       </c>
       <c r="H69">
-        <v>0.1169421790416132</v>
-      </c>
-      <c r="I69">
-        <v>0.1207301520766406</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.1319609709089585</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.1124307477306445</v>
+        <v>0.126898342173512</v>
       </c>
       <c r="C70">
-        <v>0.09393278885899109</v>
+        <v>0.104536991684475</v>
       </c>
       <c r="D70">
-        <v>0.1339225083958862</v>
+        <v>0.1462771216115297</v>
       </c>
       <c r="E70">
-        <v>0.1465873360011183</v>
+        <v>0.162861187242228</v>
       </c>
       <c r="F70">
-        <v>0.2027356668369123</v>
+        <v>0.2211070706116884</v>
       </c>
       <c r="G70">
-        <v>0.1090799670450502</v>
+        <v>0.1212308383096967</v>
       </c>
       <c r="H70">
-        <v>0.1039286582760888</v>
-      </c>
-      <c r="I70">
-        <v>0.09738232685530845</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.1170884483668702</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.1237809601190027</v>
+        <v>0.1435810934705267</v>
       </c>
       <c r="C71">
-        <v>0.1152282445759063</v>
+        <v>0.1242390037889852</v>
       </c>
       <c r="D71">
-        <v>0.1338268749914343</v>
+        <v>0.1381974432141495</v>
       </c>
       <c r="E71">
-        <v>0.118964416675176</v>
+        <v>0.1321016528826847</v>
       </c>
       <c r="F71">
-        <v>0.1207913997112496</v>
+        <v>0.1303533117898317</v>
       </c>
       <c r="G71">
-        <v>0.1365606213046428</v>
+        <v>0.1431937088552085</v>
       </c>
       <c r="H71">
-        <v>0.1615975044584975</v>
-      </c>
-      <c r="I71">
-        <v>0.08924997816409075</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.1883337859986135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.06271487233603165</v>
+        <v>0.06795709105661193</v>
       </c>
       <c r="C72">
-        <v>0.2035585733966552</v>
+        <v>0.223992018288548</v>
       </c>
       <c r="D72">
-        <v>0.134845897592901</v>
+        <v>0.149371744496185</v>
       </c>
       <c r="E72">
-        <v>0.1504363333792658</v>
+        <v>0.1861863034362453</v>
       </c>
       <c r="F72">
-        <v>0.1362745893324261</v>
+        <v>0.1548904618988742</v>
       </c>
       <c r="G72">
-        <v>0.1124463038020616</v>
+        <v>0.1050351340558685</v>
       </c>
       <c r="H72">
-        <v>0.1009812147521961</v>
-      </c>
-      <c r="I72">
-        <v>0.09874221540846256</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.1125672467676672</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.1334461184353814</v>
+        <v>0.1433673614466175</v>
       </c>
       <c r="C73">
-        <v>0.1053908895290034</v>
+        <v>0.1136925971459978</v>
       </c>
       <c r="D73">
-        <v>0.1750448730779199</v>
+        <v>0.1981387278344857</v>
       </c>
       <c r="E73">
-        <v>0.1256564819170728</v>
+        <v>0.1421492832793609</v>
       </c>
       <c r="F73">
-        <v>0.06357147440210476</v>
+        <v>0.07054226894883013</v>
       </c>
       <c r="G73">
-        <v>0.1800766574189964</v>
+        <v>0.213128191688346</v>
       </c>
       <c r="H73">
-        <v>0.1105909101695045</v>
-      </c>
-      <c r="I73">
-        <v>0.106222595050017</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.118981569656362</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.1274727251605939</v>
+        <v>0.138583631974086</v>
       </c>
       <c r="C74">
-        <v>0.1159942868524067</v>
+        <v>0.1270197432118646</v>
       </c>
       <c r="D74">
-        <v>0.1548872594744511</v>
+        <v>0.1783987440453404</v>
       </c>
       <c r="E74">
-        <v>0.1125692906999815</v>
+        <v>0.1229029873505043</v>
       </c>
       <c r="F74">
-        <v>0.1060249854760296</v>
+        <v>0.1134921334844958</v>
       </c>
       <c r="G74">
-        <v>0.1570185499724021</v>
+        <v>0.1760296301760954</v>
       </c>
       <c r="H74">
-        <v>0.125905932760885</v>
-      </c>
-      <c r="I74">
-        <v>0.1001269696032502</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.1435731297576134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.1549549609947873</v>
+        <v>0.1773941664819737</v>
       </c>
       <c r="C75">
-        <v>0.124050894713901</v>
+        <v>0.1388995354139251</v>
       </c>
       <c r="D75">
-        <v>0.1130672421295707</v>
+        <v>0.1294131804901968</v>
       </c>
       <c r="E75">
-        <v>0.1257135419437109</v>
+        <v>0.1451424115394437</v>
       </c>
       <c r="F75">
-        <v>0.09003502631188912</v>
+        <v>0.100925620467527</v>
       </c>
       <c r="G75">
-        <v>0.1166907088714416</v>
+        <v>0.1345175445937117</v>
       </c>
       <c r="H75">
-        <v>0.1530347766405019</v>
-      </c>
-      <c r="I75">
-        <v>0.1224528483941975</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.1737075410132219</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.1506007347481839</v>
+        <v>0.1605808575207818</v>
       </c>
       <c r="C76">
-        <v>0.1044859829724551</v>
+        <v>0.1231780830019751</v>
       </c>
       <c r="D76">
-        <v>0.1207872628512541</v>
+        <v>0.135341885693735</v>
       </c>
       <c r="E76">
-        <v>0.1137901500938588</v>
+        <v>0.1275014336132755</v>
       </c>
       <c r="F76">
-        <v>0.1358277940084781</v>
+        <v>0.1449592908013464</v>
       </c>
       <c r="G76">
-        <v>0.1334212402831832</v>
+        <v>0.1433756282581642</v>
       </c>
       <c r="H76">
-        <v>0.1540337210401232</v>
-      </c>
-      <c r="I76">
-        <v>0.08705311400246374</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.1650628211107221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.1281857249231893</v>
+        <v>0.1370863337521782</v>
       </c>
       <c r="C77">
-        <v>0.1554583719660335</v>
+        <v>0.1779044245724913</v>
       </c>
       <c r="D77">
-        <v>0.0992577758114752</v>
+        <v>0.1170212720323751</v>
       </c>
       <c r="E77">
-        <v>0.1125434619287645</v>
+        <v>0.128109175066705</v>
       </c>
       <c r="F77">
-        <v>0.1325606113187132</v>
+        <v>0.1692414778870894</v>
       </c>
       <c r="G77">
-        <v>0.08554956578335299</v>
+        <v>0.1011055891309693</v>
       </c>
       <c r="H77">
-        <v>0.1475213146487757</v>
-      </c>
-      <c r="I77">
-        <v>0.1389231736196956</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.1695317275581915</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.1415985231815477</v>
+        <v>0.1579751603171077</v>
       </c>
       <c r="C78">
-        <v>0.1132445865328578</v>
+        <v>0.1270262563981324</v>
       </c>
       <c r="D78">
-        <v>0.08514859457138969</v>
+        <v>0.1063377630205266</v>
       </c>
       <c r="E78">
-        <v>0.09518847788959027</v>
+        <v>0.105620958262651</v>
       </c>
       <c r="F78">
-        <v>0.1675327534846905</v>
+        <v>0.2080759423001894</v>
       </c>
       <c r="G78">
-        <v>0.1169639463622636</v>
+        <v>0.1361730759860692</v>
       </c>
       <c r="H78">
-        <v>0.1378874787715645</v>
-      </c>
-      <c r="I78">
-        <v>0.1424356392060959</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.1587908437153237</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.1042666660747209</v>
+        <v>0.116941019264367</v>
       </c>
       <c r="C79">
-        <v>0.1236094573625138</v>
+        <v>0.1376827280990337</v>
       </c>
       <c r="D79">
-        <v>0.09364639950360917</v>
+        <v>0.1044878127574847</v>
       </c>
       <c r="E79">
-        <v>0.1211297225723873</v>
+        <v>0.1352486298289215</v>
       </c>
       <c r="F79">
-        <v>0.0691159870107363</v>
+        <v>0.08257217672355353</v>
       </c>
       <c r="G79">
-        <v>0.2215664828502065</v>
+        <v>0.2582719174315189</v>
       </c>
       <c r="H79">
-        <v>0.1425929180048725</v>
-      </c>
-      <c r="I79">
-        <v>0.1240723666209536</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.1647957158951208</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.1615532157186677</v>
+        <v>0.1814353919083205</v>
       </c>
       <c r="C80">
-        <v>0.1126296019104075</v>
+        <v>0.1338539961078415</v>
       </c>
       <c r="D80">
-        <v>0.1236144940846227</v>
+        <v>0.1360577472865522</v>
       </c>
       <c r="E80">
-        <v>0.1134710439220633</v>
+        <v>0.1269338511699161</v>
       </c>
       <c r="F80">
-        <v>0.1017617180039656</v>
+        <v>0.1125086499761287</v>
       </c>
       <c r="G80">
-        <v>0.1119527307439454</v>
+        <v>0.1330171584875649</v>
       </c>
       <c r="H80">
-        <v>0.1571620194993813</v>
-      </c>
-      <c r="I80">
-        <v>0.1178551761169466</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.1761932050636761</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.1065698237568771</v>
+        <v>0.1218770294030633</v>
       </c>
       <c r="C81">
-        <v>0.1372249767910295</v>
+        <v>0.1568065006612406</v>
       </c>
       <c r="D81">
-        <v>0.1264890194903867</v>
+        <v>0.1340862929102834</v>
       </c>
       <c r="E81">
-        <v>0.1418992540591657</v>
+        <v>0.1535594419187236</v>
       </c>
       <c r="F81">
-        <v>0.1496197878459566</v>
+        <v>0.1738611962988421</v>
       </c>
       <c r="G81">
-        <v>0.1246460618339767</v>
+        <v>0.1362988350882135</v>
       </c>
       <c r="H81">
-        <v>0.1114158761160216</v>
-      </c>
-      <c r="I81">
-        <v>0.102135200106586</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>0.1235107037196337</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.02876416901032354</v>
+        <v>0.03247309527490916</v>
       </c>
       <c r="C82">
-        <v>0.07974248844169828</v>
+        <v>0.07204429619284075</v>
       </c>
       <c r="D82">
-        <v>0.1376011300476239</v>
+        <v>0.1316075989842952</v>
       </c>
       <c r="E82">
-        <v>0.1344810731055063</v>
+        <v>0.1370673980752556</v>
       </c>
       <c r="F82">
-        <v>0.2446907268994189</v>
+        <v>0.2893385732651717</v>
       </c>
       <c r="G82">
-        <v>0.2011221901251985</v>
+        <v>0.1896881739892452</v>
       </c>
       <c r="H82">
-        <v>0.1320171961929578</v>
-      </c>
-      <c r="I82">
-        <v>0.04158102617727275</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>0.1477808642182825</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.09161288742890736</v>
+        <v>0.1073327104226205</v>
       </c>
       <c r="C83">
-        <v>0.1380553057578023</v>
+        <v>0.1624360032746391</v>
       </c>
       <c r="D83">
-        <v>0.1042208049062182</v>
+        <v>0.1289569193384934</v>
       </c>
       <c r="E83">
-        <v>0.1521696488495035</v>
+        <v>0.1802276106059704</v>
       </c>
       <c r="F83">
-        <v>0.1497609894449811</v>
+        <v>0.182766612667671</v>
       </c>
       <c r="G83">
-        <v>0.1069932070705751</v>
+        <v>0.1300321122995552</v>
       </c>
       <c r="H83">
-        <v>0.09412167748407409</v>
-      </c>
-      <c r="I83">
-        <v>0.1630654790579383</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.1082480313910503</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.1148115371465559</v>
+        <v>0.1314124185119407</v>
       </c>
       <c r="C84">
-        <v>0.1096587433399891</v>
+        <v>0.1308343732099945</v>
       </c>
       <c r="D84">
-        <v>0.1299023545506367</v>
+        <v>0.1450451139941543</v>
       </c>
       <c r="E84">
-        <v>0.1352015012766911</v>
+        <v>0.15490616684966</v>
       </c>
       <c r="F84">
-        <v>0.1556021375283914</v>
+        <v>0.1801173152138955</v>
       </c>
       <c r="G84">
-        <v>0.1083679638998852</v>
+        <v>0.123497845803704</v>
       </c>
       <c r="H84">
-        <v>0.1180725481906318</v>
-      </c>
-      <c r="I84">
-        <v>0.1283832140672188</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.1341867664166511</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.1325722239145123</v>
+        <v>0.177445006346583</v>
       </c>
       <c r="C85">
-        <v>0.06530058349689394</v>
+        <v>0.08656263335344384</v>
       </c>
       <c r="D85">
-        <v>0.0761063005353164</v>
+        <v>0.1009480813579485</v>
       </c>
       <c r="E85">
-        <v>0.1481698546253171</v>
+        <v>0.1875413977939451</v>
       </c>
       <c r="F85">
-        <v>0.1679043859568041</v>
+        <v>0.1888308552615458</v>
       </c>
       <c r="G85">
-        <v>0.08503471685334901</v>
+        <v>0.09749747582818349</v>
       </c>
       <c r="H85">
-        <v>0.1283016763429421</v>
-      </c>
-      <c r="I85">
-        <v>0.196610258274865</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.1611745500583502</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.141372455842428</v>
+        <v>0.1644504958624565</v>
       </c>
       <c r="C86">
-        <v>0.124563253820004</v>
+        <v>0.1407101202303619</v>
       </c>
       <c r="D86">
-        <v>0.1166189093282283</v>
+        <v>0.1341627788231769</v>
       </c>
       <c r="E86">
-        <v>0.1113411276160436</v>
+        <v>0.1290573459641996</v>
       </c>
       <c r="F86">
-        <v>0.06707591021801138</v>
+        <v>0.07744682595087779</v>
       </c>
       <c r="G86">
-        <v>0.1554555774030984</v>
+        <v>0.1803460321085953</v>
       </c>
       <c r="H86">
-        <v>0.1505722863328418</v>
-      </c>
-      <c r="I86">
-        <v>0.1330004794393446</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.1738264010603319</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.1464482466939381</v>
+        <v>0.1708063576445967</v>
       </c>
       <c r="C87">
-        <v>0.1208586119837034</v>
+        <v>0.1352102352932454</v>
       </c>
       <c r="D87">
-        <v>0.1213052333211022</v>
+        <v>0.1421167874785544</v>
       </c>
       <c r="E87">
-        <v>0.1119003126447783</v>
+        <v>0.1288730457625026</v>
       </c>
       <c r="F87">
-        <v>0.06502577021528519</v>
+        <v>0.0740269327899626</v>
       </c>
       <c r="G87">
-        <v>0.1458591328337111</v>
+        <v>0.1654758045154248</v>
       </c>
       <c r="H87">
-        <v>0.160073317578746</v>
-      </c>
-      <c r="I87">
-        <v>0.1285293747287359</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>0.1834908365157134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.1283750909663067</v>
+        <v>0.1613818865298396</v>
       </c>
       <c r="C88">
-        <v>0.1470980906004223</v>
+        <v>0.1735550417887663</v>
       </c>
       <c r="D88">
-        <v>0.1409576286155373</v>
+        <v>0.1627748825112927</v>
       </c>
       <c r="E88">
-        <v>0.1612509731528538</v>
+        <v>0.1844290718816129</v>
       </c>
       <c r="F88">
-        <v>0.07894744267999748</v>
+        <v>0.09517947448601159</v>
       </c>
       <c r="G88">
-        <v>0.06459279259985061</v>
+        <v>0.07301177895186858</v>
       </c>
       <c r="H88">
-        <v>0.1271964740478759</v>
-      </c>
-      <c r="I88">
-        <v>0.1515815073371559</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.1496678638506083</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.09516817879174813</v>
+        <v>0.1072985637613436</v>
       </c>
       <c r="C89">
-        <v>0.1347170981662085</v>
+        <v>0.1558735007128449</v>
       </c>
       <c r="D89">
-        <v>0.1174725999200299</v>
+        <v>0.1246705575154881</v>
       </c>
       <c r="E89">
-        <v>0.1368156871397534</v>
+        <v>0.1578843049692588</v>
       </c>
       <c r="F89">
-        <v>0.1460904225461759</v>
+        <v>0.1857712048123288</v>
       </c>
       <c r="G89">
-        <v>0.133089843215828</v>
+        <v>0.1517672364244609</v>
       </c>
       <c r="H89">
-        <v>0.1015291754958525</v>
-      </c>
-      <c r="I89">
-        <v>0.1351169947244038</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>0.1167346318042749</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.1511429567649288</v>
+        <v>0.168517594145844</v>
       </c>
       <c r="C90">
-        <v>0.1067715488244776</v>
+        <v>0.1196680242764753</v>
       </c>
       <c r="D90">
-        <v>0.1335594754244003</v>
+        <v>0.1461545282433455</v>
       </c>
       <c r="E90">
-        <v>0.1236584717280313</v>
+        <v>0.1407615852806743</v>
       </c>
       <c r="F90">
-        <v>0.1074991327720869</v>
+        <v>0.1146743336780367</v>
       </c>
       <c r="G90">
-        <v>0.119886944346111</v>
+        <v>0.1401765978928785</v>
       </c>
       <c r="H90">
-        <v>0.1488933477150681</v>
-      </c>
-      <c r="I90">
-        <v>0.1085881224248959</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0.1700473364827456</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.1107182695588552</v>
+        <v>0.1219297285860687</v>
       </c>
       <c r="C91">
-        <v>0.1126748957819737</v>
+        <v>0.1276658459846882</v>
       </c>
       <c r="D91">
-        <v>0.1254543916546762</v>
+        <v>0.140487736874479</v>
       </c>
       <c r="E91">
-        <v>0.109373382875279</v>
+        <v>0.1221151253369815</v>
       </c>
       <c r="F91">
-        <v>0.05730994422918732</v>
+        <v>0.0624096795439926</v>
       </c>
       <c r="G91">
-        <v>0.2652918342808679</v>
+        <v>0.296265052266325</v>
       </c>
       <c r="H91">
-        <v>0.1173731018939476</v>
-      </c>
-      <c r="I91">
-        <v>0.1018041797252129</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.129126831407465</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.0643355205993654</v>
+        <v>0.07097164509491188</v>
       </c>
       <c r="C92">
-        <v>0.08816837118788728</v>
+        <v>0.09945291319769582</v>
       </c>
       <c r="D92">
-        <v>0.1468769051989329</v>
+        <v>0.1680311179705574</v>
       </c>
       <c r="E92">
-        <v>0.155470157617165</v>
+        <v>0.17786204221132</v>
       </c>
       <c r="F92">
-        <v>0.2401230627482922</v>
+        <v>0.2722615205503635</v>
       </c>
       <c r="G92">
-        <v>0.1031442382988437</v>
+        <v>0.1216298157046876</v>
       </c>
       <c r="H92">
-        <v>0.08168458344663018</v>
-      </c>
-      <c r="I92">
-        <v>0.1201971609028834</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.0897909452704637</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.1101913903437791</v>
+        <v>0.1272672248529909</v>
       </c>
       <c r="C93">
-        <v>0.1224017558412373</v>
+        <v>0.140664819194787</v>
       </c>
       <c r="D93">
-        <v>0.1428228125636165</v>
+        <v>0.1603061281178208</v>
       </c>
       <c r="E93">
-        <v>0.1238867263443918</v>
+        <v>0.1402169240008186</v>
       </c>
       <c r="F93">
-        <v>0.1438735743955386</v>
+        <v>0.1649623651566789</v>
       </c>
       <c r="G93">
-        <v>0.110908203509011</v>
+        <v>0.1275312144767667</v>
       </c>
       <c r="H93">
-        <v>0.1211264190203323</v>
-      </c>
-      <c r="I93">
-        <v>0.1247891179820933</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.1390513242001371</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.1602924210066131</v>
+        <v>0.1939224122357313</v>
       </c>
       <c r="C94">
-        <v>0.1273727078125011</v>
+        <v>0.1518350664022625</v>
       </c>
       <c r="D94">
-        <v>0.111994495798015</v>
+        <v>0.1269727419643755</v>
       </c>
       <c r="E94">
-        <v>0.1073453200684941</v>
+        <v>0.1205840117504142</v>
       </c>
       <c r="F94">
-        <v>0.05577086681846334</v>
+        <v>0.06387380442314</v>
       </c>
       <c r="G94">
-        <v>0.1464746397655956</v>
+        <v>0.1729160046329397</v>
       </c>
       <c r="H94">
-        <v>0.145429001256636</v>
-      </c>
-      <c r="I94">
-        <v>0.1453205474736819</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.1698959585911368</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.1446280694291983</v>
+        <v>0.1648479528226169</v>
       </c>
       <c r="C95">
-        <v>0.1477555808068961</v>
+        <v>0.1657340633971085</v>
       </c>
       <c r="D95">
-        <v>0.1185937542097909</v>
+        <v>0.1398301651073711</v>
       </c>
       <c r="E95">
-        <v>0.1053985126211829</v>
+        <v>0.121918066782626</v>
       </c>
       <c r="F95">
-        <v>0.07341076875649975</v>
+        <v>0.08453187254929967</v>
       </c>
       <c r="G95">
-        <v>0.1516116030632409</v>
+        <v>0.1708347766728842</v>
       </c>
       <c r="H95">
-        <v>0.1372755387310577</v>
-      </c>
-      <c r="I95">
-        <v>0.1213261723821336</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.1523031026680937</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.1057482198307705</v>
+        <v>0.1179600440454054</v>
       </c>
       <c r="C96">
-        <v>0.1251954432984627</v>
+        <v>0.1393092531190273</v>
       </c>
       <c r="D96">
-        <v>0.1357598736127158</v>
+        <v>0.1549020501999229</v>
       </c>
       <c r="E96">
-        <v>0.1049986769041543</v>
+        <v>0.1154697537380956</v>
       </c>
       <c r="F96">
-        <v>0.1820068001633321</v>
+        <v>0.2173965064982342</v>
       </c>
       <c r="G96">
-        <v>0.1182703846599939</v>
+        <v>0.128293365975216</v>
       </c>
       <c r="H96">
-        <v>0.1065843817744776</v>
-      </c>
-      <c r="I96">
-        <v>0.121436219756093</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>0.1266690264240986</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.08698263747123884</v>
+        <v>0.09798056260907487</v>
       </c>
       <c r="C97">
-        <v>0.1085150975028031</v>
+        <v>0.1215952478953033</v>
       </c>
       <c r="D97">
-        <v>0.1349678568752285</v>
+        <v>0.1574956826926077</v>
       </c>
       <c r="E97">
-        <v>0.1445655177670696</v>
+        <v>0.1661830295918519</v>
       </c>
       <c r="F97">
-        <v>0.03832232108748521</v>
+        <v>0.0458222267793001</v>
       </c>
       <c r="G97">
-        <v>0.1974232849893308</v>
+        <v>0.2354314799864562</v>
       </c>
       <c r="H97">
-        <v>0.1637154340881595</v>
-      </c>
-      <c r="I97">
-        <v>0.1255078502186845</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.175491770445406</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.102941254512558</v>
+        <v>0.1118775829836073</v>
       </c>
       <c r="C98">
-        <v>0.1072376022867247</v>
+        <v>0.1200762153054069</v>
       </c>
       <c r="D98">
-        <v>0.1566523537725126</v>
+        <v>0.1771982183545852</v>
       </c>
       <c r="E98">
-        <v>0.1170195261408128</v>
+        <v>0.1285335183390391</v>
       </c>
       <c r="F98">
-        <v>0.2037872182689527</v>
+        <v>0.2314241983761504</v>
       </c>
       <c r="G98">
-        <v>0.1057970026697368</v>
+        <v>0.1165098341578932</v>
       </c>
       <c r="H98">
-        <v>0.1081790619000048</v>
-      </c>
-      <c r="I98">
-        <v>0.09838598044869774</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.114380432483318</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.1686001549529724</v>
+        <v>0.1991021180532822</v>
       </c>
       <c r="C99">
-        <v>0.1333123872005091</v>
+        <v>0.1636943748872837</v>
       </c>
       <c r="D99">
-        <v>0.128951146241979</v>
+        <v>0.1411364433337856</v>
       </c>
       <c r="E99">
-        <v>0.1294507700211744</v>
+        <v>0.1449032024053918</v>
       </c>
       <c r="F99">
-        <v>0.05966982535550062</v>
+        <v>0.06653109493854249</v>
       </c>
       <c r="G99">
-        <v>0.1411652970689191</v>
+        <v>0.1591803640108182</v>
       </c>
       <c r="H99">
-        <v>0.1117539623738909</v>
-      </c>
-      <c r="I99">
-        <v>0.1270964567850545</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>0.125452402370896</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.1039785778138471</v>
+        <v>0.1134535522748532</v>
       </c>
       <c r="C100">
-        <v>0.1150665012806131</v>
+        <v>0.1305396193021227</v>
       </c>
       <c r="D100">
-        <v>0.1621796868931504</v>
+        <v>0.1831920436480009</v>
       </c>
       <c r="E100">
-        <v>0.1183763276940303</v>
+        <v>0.1309869526306088</v>
       </c>
       <c r="F100">
-        <v>0.1965033454276884</v>
+        <v>0.2123663669746195</v>
       </c>
       <c r="G100">
-        <v>0.09881293618178888</v>
+        <v>0.1102874017079622</v>
       </c>
       <c r="H100">
-        <v>0.1054645026741171</v>
-      </c>
-      <c r="I100">
-        <v>0.09961812203476468</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>0.1191740634618327</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.08842207080249005</v>
+        <v>0.102512900602013</v>
       </c>
       <c r="C101">
-        <v>0.0995207524359186</v>
+        <v>0.1099937421896793</v>
       </c>
       <c r="D101">
-        <v>0.132231488510079</v>
+        <v>0.1391329109647872</v>
       </c>
       <c r="E101">
-        <v>0.1203241129260541</v>
+        <v>0.131405823508177</v>
       </c>
       <c r="F101">
-        <v>0.2686384029961542</v>
+        <v>0.2796676189595311</v>
       </c>
       <c r="G101">
-        <v>0.07716392728843664</v>
+        <v>0.09004056123213959</v>
       </c>
       <c r="H101">
-        <v>0.127013400677333</v>
-      </c>
-      <c r="I101">
-        <v>0.08668584436353426</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>0.1472464425436728</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.1493841208545912</v>
+        <v>0.1668474539169841</v>
       </c>
       <c r="C102">
-        <v>0.1310433590714144</v>
+        <v>0.1463215623968319</v>
       </c>
       <c r="D102">
-        <v>0.1148811224300973</v>
+        <v>0.1341584339037277</v>
       </c>
       <c r="E102">
-        <v>0.1219261392681036</v>
+        <v>0.1386022750929792</v>
       </c>
       <c r="F102">
-        <v>0.1103163166970388</v>
+        <v>0.1230866495723467</v>
       </c>
       <c r="G102">
-        <v>0.1151249067456434</v>
+        <v>0.1319163520895377</v>
       </c>
       <c r="H102">
-        <v>0.1419137019624929</v>
-      </c>
-      <c r="I102">
-        <v>0.1154103329706185</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>0.1590672730275926</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.1151601623917598</v>
+        <v>0.1342896388651761</v>
       </c>
       <c r="C103">
-        <v>0.09689837456681728</v>
+        <v>0.1099285519576528</v>
       </c>
       <c r="D103">
-        <v>0.1383954173288133</v>
+        <v>0.1550861072808676</v>
       </c>
       <c r="E103">
-        <v>0.1165752392297052</v>
+        <v>0.134229742638845</v>
       </c>
       <c r="F103">
-        <v>0.06241320679646879</v>
+        <v>0.07067180226449872</v>
       </c>
       <c r="G103">
-        <v>0.2122907336647527</v>
+        <v>0.2319058609988784</v>
       </c>
       <c r="H103">
-        <v>0.1468975380081742</v>
-      </c>
-      <c r="I103">
-        <v>0.1113693280135087</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>0.1638882959940815</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.07733122530092566</v>
+        <v>0.08617880287501574</v>
       </c>
       <c r="C104">
-        <v>0.0981227612840935</v>
+        <v>0.1099579084320262</v>
       </c>
       <c r="D104">
-        <v>0.1174307528903273</v>
+        <v>0.134839478632109</v>
       </c>
       <c r="E104">
-        <v>0.1454473951438859</v>
+        <v>0.1637828821141433</v>
       </c>
       <c r="F104">
-        <v>0.06027403155393769</v>
+        <v>0.06437313921101677</v>
       </c>
       <c r="G104">
-        <v>0.221009215596105</v>
+        <v>0.2394095786830295</v>
       </c>
       <c r="H104">
-        <v>0.1807008092907803</v>
-      </c>
-      <c r="I104">
-        <v>0.09968380893994469</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>0.2014582100526596</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.1299291406941114</v>
+        <v>0.1497215907149499</v>
       </c>
       <c r="C105">
-        <v>0.1146511892483554</v>
+        <v>0.1304364966675159</v>
       </c>
       <c r="D105">
-        <v>0.1508214356026683</v>
+        <v>0.1599523192355787</v>
       </c>
       <c r="E105">
-        <v>0.1124293374733013</v>
+        <v>0.1281514766408269</v>
       </c>
       <c r="F105">
-        <v>0.1348290455201498</v>
+        <v>0.1501428808742877</v>
       </c>
       <c r="G105">
-        <v>0.136921759366694</v>
+        <v>0.1395593067345907</v>
       </c>
       <c r="H105">
-        <v>0.120084025695715</v>
-      </c>
-      <c r="I105">
-        <v>0.1003340663990048</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>0.1420359291322502</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.1436216504539154</v>
+        <v>0.1630391437698271</v>
       </c>
       <c r="C106">
-        <v>0.1317832594448174</v>
+        <v>0.1484905723775881</v>
       </c>
       <c r="D106">
-        <v>0.1334228640676993</v>
+        <v>0.1520273689411964</v>
       </c>
       <c r="E106">
-        <v>0.1122956536757455</v>
+        <v>0.128822061103908</v>
       </c>
       <c r="F106">
-        <v>0.05587222343974209</v>
+        <v>0.06393515503174967</v>
       </c>
       <c r="G106">
-        <v>0.1520579099691424</v>
+        <v>0.1761708941661838</v>
       </c>
       <c r="H106">
-        <v>0.1458260661319365</v>
-      </c>
-      <c r="I106">
-        <v>0.1251203728170015</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>0.1675148046095469</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.1183173413730428</v>
+        <v>0.136561007076317</v>
       </c>
       <c r="C107">
-        <v>0.1478044409260549</v>
+        <v>0.171928609613552</v>
       </c>
       <c r="D107">
-        <v>0.1309739238722725</v>
+        <v>0.1527804930778535</v>
       </c>
       <c r="E107">
-        <v>0.123644021136317</v>
+        <v>0.1421641648985892</v>
       </c>
       <c r="F107">
-        <v>0.1350871169622764</v>
+        <v>0.1628561133386063</v>
       </c>
       <c r="G107">
-        <v>0.1121338654533861</v>
+        <v>0.1322617676585866</v>
       </c>
       <c r="H107">
-        <v>0.08700905586291628</v>
-      </c>
-      <c r="I107">
-        <v>0.1450302344137341</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>0.1014478443364953</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.1065735192125781</v>
+        <v>0.1060136792979939</v>
       </c>
       <c r="C108">
-        <v>0.08353933561080476</v>
+        <v>0.08970685838887246</v>
       </c>
       <c r="D108">
-        <v>0.1108857775523856</v>
+        <v>0.1242338469972209</v>
       </c>
       <c r="E108">
-        <v>0.1344258473113421</v>
+        <v>0.1575252491396662</v>
       </c>
       <c r="F108">
-        <v>0.2173710417860863</v>
+        <v>0.2690539532815183</v>
       </c>
       <c r="G108">
-        <v>0.0918316470672291</v>
+        <v>0.09217345849449725</v>
       </c>
       <c r="H108">
-        <v>0.1448188791658357</v>
-      </c>
-      <c r="I108">
-        <v>0.1105539522937383</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>0.161292954400231</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.02969633873801959</v>
+        <v>0.0321955425687824</v>
       </c>
       <c r="C109">
-        <v>0.1404035723161077</v>
+        <v>0.1574907466351701</v>
       </c>
       <c r="D109">
-        <v>0.1936788336396608</v>
+        <v>0.1962772485297049</v>
       </c>
       <c r="E109">
-        <v>0.08404228825478165</v>
+        <v>0.08988830007154527</v>
       </c>
       <c r="F109">
-        <v>0.2303237405338642</v>
+        <v>0.2544566146402242</v>
       </c>
       <c r="G109">
-        <v>0.167224337208797</v>
+        <v>0.1944631351673448</v>
       </c>
       <c r="H109">
-        <v>0.07033589669260729</v>
-      </c>
-      <c r="I109">
-        <v>0.0842949926161617</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>0.0752284123872286</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.0858039591601535</v>
+        <v>0.09624277056860031</v>
       </c>
       <c r="C110">
-        <v>0.133861589340262</v>
+        <v>0.1503064046246978</v>
       </c>
       <c r="D110">
-        <v>0.1254500398945019</v>
+        <v>0.1500980392606918</v>
       </c>
       <c r="E110">
-        <v>0.121072173413028</v>
+        <v>0.1378503086084547</v>
       </c>
       <c r="F110">
-        <v>0.1511312723109063</v>
+        <v>0.1796139972500078</v>
       </c>
       <c r="G110">
-        <v>0.1448081119315345</v>
+        <v>0.175180220252212</v>
       </c>
       <c r="H110">
-        <v>0.09513184868172775</v>
-      </c>
-      <c r="I110">
-        <v>0.142741005267886</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>0.1107082594353356</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.161632554949635</v>
+        <v>0.1767969297489666</v>
       </c>
       <c r="C111">
-        <v>0.1464811692480379</v>
+        <v>0.1630299956425037</v>
       </c>
       <c r="D111">
-        <v>0.1125009453598045</v>
+        <v>0.1350840895438902</v>
       </c>
       <c r="E111">
-        <v>0.1045633838425526</v>
+        <v>0.1190104964494125</v>
       </c>
       <c r="F111">
-        <v>0.06857317486701366</v>
+        <v>0.07785995139381832</v>
       </c>
       <c r="G111">
-        <v>0.1574237655997393</v>
+        <v>0.1731316369118498</v>
       </c>
       <c r="H111">
-        <v>0.1215156743057765</v>
-      </c>
-      <c r="I111">
-        <v>0.1273093318274406</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>0.1550869003095589</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.1411237969943741</v>
+        <v>0.1630695791088613</v>
       </c>
       <c r="C112">
-        <v>0.109750454578763</v>
+        <v>0.1208663977916294</v>
       </c>
       <c r="D112">
-        <v>0.1373538529340343</v>
+        <v>0.149231555018734</v>
       </c>
       <c r="E112">
-        <v>0.1153917580195084</v>
+        <v>0.1294668446011818</v>
       </c>
       <c r="F112">
-        <v>0.1204599801150336</v>
+        <v>0.1445803504691649</v>
       </c>
       <c r="G112">
-        <v>0.12992316675437</v>
+        <v>0.1483198828893713</v>
       </c>
       <c r="H112">
-        <v>0.1276084948246378</v>
-      </c>
-      <c r="I112">
-        <v>0.1183884957792788</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>0.1444653901210572</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.1285853361343304</v>
+        <v>0.1426195217546372</v>
       </c>
       <c r="C113">
-        <v>0.1261378870667824</v>
+        <v>0.1423375804065456</v>
       </c>
       <c r="D113">
-        <v>0.1335209520219622</v>
+        <v>0.1520593733957404</v>
       </c>
       <c r="E113">
-        <v>0.1233115705673962</v>
+        <v>0.1405676747190757</v>
       </c>
       <c r="F113">
-        <v>0.1467296435478087</v>
+        <v>0.167998444003247</v>
       </c>
       <c r="G113">
-        <v>0.1015454482750166</v>
+        <v>0.1139838396451158</v>
       </c>
       <c r="H113">
-        <v>0.1238911900580427</v>
-      </c>
-      <c r="I113">
-        <v>0.1162779723286608</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>0.1404335660756384</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.1344110442951876</v>
+        <v>0.1495398000408063</v>
       </c>
       <c r="C114">
-        <v>0.1183109041011969</v>
+        <v>0.134590057708504</v>
       </c>
       <c r="D114">
-        <v>0.1307549750007894</v>
+        <v>0.1355655367472751</v>
       </c>
       <c r="E114">
-        <v>0.1180676308717802</v>
+        <v>0.1258659886460573</v>
       </c>
       <c r="F114">
-        <v>0.1363525533579498</v>
+        <v>0.1523812924721881</v>
       </c>
       <c r="G114">
-        <v>0.1285143800983604</v>
+        <v>0.1406650103317007</v>
       </c>
       <c r="H114">
-        <v>0.1420016654206921</v>
-      </c>
-      <c r="I114">
-        <v>0.09158684685404354</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>0.1613923140534685</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.08458783622073522</v>
+        <v>0.09557086235050395</v>
       </c>
       <c r="C115">
-        <v>0.1835355052074587</v>
+        <v>0.2104887051649086</v>
       </c>
       <c r="D115">
-        <v>0.1177057086162496</v>
+        <v>0.1323283606205169</v>
       </c>
       <c r="E115">
-        <v>0.1193043938298616</v>
+        <v>0.1424116098203093</v>
       </c>
       <c r="F115">
-        <v>0.08955634204553725</v>
+        <v>0.1051594641558154</v>
       </c>
       <c r="G115">
-        <v>0.1481066309064684</v>
+        <v>0.1724016687083045</v>
       </c>
       <c r="H115">
-        <v>0.124760982839966</v>
-      </c>
-      <c r="I115">
-        <v>0.1324426003337234</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>0.1416393291796412</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.07323148059476044</v>
+        <v>0.08300347670383264</v>
       </c>
       <c r="C116">
-        <v>0.1141545283417837</v>
+        <v>0.1273584601248983</v>
       </c>
       <c r="D116">
-        <v>0.1480311501594045</v>
+        <v>0.1641511125786614</v>
       </c>
       <c r="E116">
-        <v>0.1363874058529476</v>
+        <v>0.1509734051493261</v>
       </c>
       <c r="F116">
-        <v>0.2076617556341786</v>
+        <v>0.2338947901418505</v>
       </c>
       <c r="G116">
-        <v>0.1153298411383742</v>
+        <v>0.1256873305522572</v>
       </c>
       <c r="H116">
-        <v>0.1023410118784291</v>
-      </c>
-      <c r="I116">
-        <v>0.1028628264001217</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>0.1149314247491738</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.1477146914697278</v>
+        <v>0.1629765856064607</v>
       </c>
       <c r="C117">
-        <v>0.1228079815920463</v>
+        <v>0.1369798716303186</v>
       </c>
       <c r="D117">
-        <v>0.1462982957474641</v>
+        <v>0.1645296241245133</v>
       </c>
       <c r="E117">
-        <v>0.1117603061849233</v>
+        <v>0.1333972316064914</v>
       </c>
       <c r="F117">
-        <v>0.07232002745415296</v>
+        <v>0.08659953971613783</v>
       </c>
       <c r="G117">
-        <v>0.1475805969523923</v>
+        <v>0.159004902902889</v>
       </c>
       <c r="H117">
-        <v>0.1258011499841976</v>
-      </c>
-      <c r="I117">
-        <v>0.1257169506150956</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>0.156512244413189</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.1591533608966486</v>
+        <v>0.1792079962897484</v>
       </c>
       <c r="C118">
-        <v>0.1145761226967931</v>
+        <v>0.1283148562185637</v>
       </c>
       <c r="D118">
-        <v>0.1160357085758603</v>
+        <v>0.1247929545421577</v>
       </c>
       <c r="E118">
-        <v>0.1142688145480593</v>
+        <v>0.131335627450481</v>
       </c>
       <c r="F118">
-        <v>0.0625505135497995</v>
+        <v>0.06953941244169945</v>
       </c>
       <c r="G118">
-        <v>0.2004769125100355</v>
+        <v>0.2307683681864826</v>
       </c>
       <c r="H118">
-        <v>0.1213849569893321</v>
-      </c>
-      <c r="I118">
-        <v>0.1115536102334717</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>0.136040784870867</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.1540151124751455</v>
+        <v>0.1768695917712257</v>
       </c>
       <c r="C119">
-        <v>0.1382619962939513</v>
+        <v>0.1543846152408604</v>
       </c>
       <c r="D119">
-        <v>0.1139501899704674</v>
+        <v>0.1280519847577911</v>
       </c>
       <c r="E119">
-        <v>0.09711801438965061</v>
+        <v>0.10964690065024</v>
       </c>
       <c r="F119">
-        <v>0.07971651898953412</v>
+        <v>0.08924840225509562</v>
       </c>
       <c r="G119">
-        <v>0.1536596974693805</v>
+        <v>0.1757918886428067</v>
       </c>
       <c r="H119">
-        <v>0.1458092075742783</v>
-      </c>
-      <c r="I119">
-        <v>0.1174692628375922</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>0.1660066166819806</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.1447765711759257</v>
+        <v>0.1662813102066705</v>
       </c>
       <c r="C120">
-        <v>0.1332306308682822</v>
+        <v>0.1514147415477728</v>
       </c>
       <c r="D120">
-        <v>0.1224926812714089</v>
+        <v>0.1385106936689529</v>
       </c>
       <c r="E120">
-        <v>0.1080811343467165</v>
+        <v>0.1217337000577477</v>
       </c>
       <c r="F120">
-        <v>0.08339185293281226</v>
+        <v>0.09453912796453054</v>
       </c>
       <c r="G120">
-        <v>0.1503165902653336</v>
+        <v>0.1686536142259174</v>
       </c>
       <c r="H120">
-        <v>0.1392190763768957</v>
-      </c>
-      <c r="I120">
-        <v>0.118491462762625</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>0.1588668123284082</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.05988436453330608</v>
+        <v>0.06767000982136298</v>
       </c>
       <c r="C121">
-        <v>0.08377207934680665</v>
+        <v>0.08310689845178088</v>
       </c>
       <c r="D121">
-        <v>0.1425431817722494</v>
+        <v>0.1563609919689554</v>
       </c>
       <c r="E121">
-        <v>0.1594557968462033</v>
+        <v>0.1745264793903145</v>
       </c>
       <c r="F121">
-        <v>0.2593159630462881</v>
+        <v>0.2737807207725115</v>
       </c>
       <c r="G121">
-        <v>0.1212684281542948</v>
+        <v>0.135440822958677</v>
       </c>
       <c r="H121">
-        <v>0.1031949506061056</v>
-      </c>
-      <c r="I121">
-        <v>0.07056523569474601</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>0.1091140766363978</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.1333400364740176</v>
+        <v>0.1454650816641983</v>
       </c>
       <c r="C122">
-        <v>0.1159205733571415</v>
+        <v>0.1242204284755146</v>
       </c>
       <c r="D122">
-        <v>0.1266511915704703</v>
+        <v>0.144095677724962</v>
       </c>
       <c r="E122">
-        <v>0.1135873012486647</v>
+        <v>0.1356803889040674</v>
       </c>
       <c r="F122">
-        <v>0.1185618395114237</v>
+        <v>0.1326584657313193</v>
       </c>
       <c r="G122">
-        <v>0.1353877756807994</v>
+        <v>0.1457348076294605</v>
       </c>
       <c r="H122">
-        <v>0.1449680122038839</v>
-      </c>
-      <c r="I122">
-        <v>0.1115832699535989</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>0.1721451498704779</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.09801277576999703</v>
+        <v>0.1098761045396718</v>
       </c>
       <c r="C123">
-        <v>0.130732467233534</v>
+        <v>0.1491915484886979</v>
       </c>
       <c r="D123">
-        <v>0.1364152701084518</v>
+        <v>0.1478967536669604</v>
       </c>
       <c r="E123">
-        <v>0.1318610876410562</v>
+        <v>0.1404878411011479</v>
       </c>
       <c r="F123">
-        <v>0.1863442091689321</v>
+        <v>0.201237847025832</v>
       </c>
       <c r="G123">
-        <v>0.113532231381692</v>
+        <v>0.1255765013390778</v>
       </c>
       <c r="H123">
-        <v>0.1100107345600614</v>
-      </c>
-      <c r="I123">
-        <v>0.09309122413627548</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>0.1257334038386123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.06777174117046199</v>
+        <v>0.07403368180169341</v>
       </c>
       <c r="C124">
-        <v>0.0712520298111453</v>
+        <v>0.07191910252046838</v>
       </c>
       <c r="D124">
-        <v>0.2283444541909407</v>
+        <v>0.2612723319437016</v>
       </c>
       <c r="E124">
-        <v>0.2327466292817216</v>
+        <v>0.2664242885581767</v>
       </c>
       <c r="F124">
-        <v>0.03156399815742909</v>
+        <v>0.03288361962084622</v>
       </c>
       <c r="G124">
-        <v>0.1851199255368171</v>
+        <v>0.2027460615997315</v>
       </c>
       <c r="H124">
-        <v>0.09232958886024636</v>
-      </c>
-      <c r="I124">
-        <v>0.09087163299123781</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>0.09072091395538219</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.122147732027546</v>
+        <v>0.1402207901754641</v>
       </c>
       <c r="C125">
-        <v>0.1609172530296945</v>
+        <v>0.1717359394058693</v>
       </c>
       <c r="D125">
-        <v>0.1436487728276513</v>
+        <v>0.1578823958174452</v>
       </c>
       <c r="E125">
-        <v>0.1186700074558235</v>
+        <v>0.1343265554440569</v>
       </c>
       <c r="F125">
-        <v>0.109881822402021</v>
+        <v>0.1255521230843238</v>
       </c>
       <c r="G125">
-        <v>0.1083535644245926</v>
+        <v>0.1232018648881327</v>
       </c>
       <c r="H125">
-        <v>0.1382883506377848</v>
-      </c>
-      <c r="I125">
-        <v>0.09809249719488633</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>0.147080331184708</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.08916111351874445</v>
+        <v>0.1011783726556539</v>
       </c>
       <c r="C126">
-        <v>0.08379275485625494</v>
+        <v>0.09351308085393875</v>
       </c>
       <c r="D126">
-        <v>0.1397684129464284</v>
+        <v>0.1529137206391147</v>
       </c>
       <c r="E126">
-        <v>0.1344655497835559</v>
+        <v>0.1438490095724363</v>
       </c>
       <c r="F126">
-        <v>0.2354032983882429</v>
+        <v>0.2570615324248751</v>
       </c>
       <c r="G126">
-        <v>0.08364907918202413</v>
+        <v>0.09621898964125937</v>
       </c>
       <c r="H126">
-        <v>0.1464858387892349</v>
-      </c>
-      <c r="I126">
-        <v>0.08727395253551443</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>0.1552652942127221</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.1189581528746844</v>
+        <v>0.1442015371407553</v>
       </c>
       <c r="C127">
-        <v>0.07346070504401458</v>
+        <v>0.08614116347702214</v>
       </c>
       <c r="D127">
-        <v>0.1349567831898059</v>
+        <v>0.1858842799537909</v>
       </c>
       <c r="E127">
-        <v>0.1438854667630856</v>
+        <v>0.1815258348854581</v>
       </c>
       <c r="F127">
-        <v>0.04011584307023767</v>
+        <v>0.04998145131543835</v>
       </c>
       <c r="G127">
-        <v>0.0800217305940025</v>
+        <v>0.1034890353156527</v>
       </c>
       <c r="H127">
-        <v>0.2095140972927486</v>
-      </c>
-      <c r="I127">
-        <v>0.1990872211714208</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>0.2487766979118826</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.16588844289444</v>
+        <v>0.1968806246563604</v>
       </c>
       <c r="C128">
-        <v>0.1168838089129748</v>
+        <v>0.1341439481573183</v>
       </c>
       <c r="D128">
-        <v>0.1172671063135334</v>
+        <v>0.1347842969086507</v>
       </c>
       <c r="E128">
-        <v>0.1062748751122164</v>
+        <v>0.1219524839698446</v>
       </c>
       <c r="F128">
-        <v>0.06710277829267558</v>
+        <v>0.07509078255987109</v>
       </c>
       <c r="G128">
-        <v>0.1685220630828342</v>
+        <v>0.1926905039047588</v>
       </c>
       <c r="H128">
-        <v>0.1273812210101781</v>
-      </c>
-      <c r="I128">
-        <v>0.1306797043811474</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>0.1444573598431962</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.1448403914678853</v>
+        <v>0.1634352978703608</v>
       </c>
       <c r="C129">
-        <v>0.117776488138372</v>
+        <v>0.1328930826939736</v>
       </c>
       <c r="D129">
-        <v>0.1107771810269816</v>
+        <v>0.1273634419714969</v>
       </c>
       <c r="E129">
-        <v>0.1246634189026461</v>
+        <v>0.1432762035408066</v>
       </c>
       <c r="F129">
-        <v>0.06885151704623509</v>
+        <v>0.07874515035259863</v>
       </c>
       <c r="G129">
-        <v>0.1822436375650014</v>
+        <v>0.2089565140496193</v>
       </c>
       <c r="H129">
-        <v>0.1248089451731558</v>
-      </c>
-      <c r="I129">
-        <v>0.1260384206797228</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>0.145330309521144</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.09698682763297344</v>
+        <v>0.1090789442580216</v>
       </c>
       <c r="C130">
-        <v>0.1120872134891365</v>
+        <v>0.1245784615047193</v>
       </c>
       <c r="D130">
-        <v>0.1406508706759698</v>
+        <v>0.1552825529193778</v>
       </c>
       <c r="E130">
-        <v>0.1396081431191349</v>
+        <v>0.1550788444340264</v>
       </c>
       <c r="F130">
-        <v>0.1916679342404289</v>
+        <v>0.2076190501127819</v>
       </c>
       <c r="G130">
-        <v>0.1038587085079136</v>
+        <v>0.1166565251529529</v>
       </c>
       <c r="H130">
-        <v>0.1165295135353485</v>
-      </c>
-      <c r="I130">
-        <v>0.09861078879909434</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>0.1317056216181201</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.1196155851743159</v>
+        <v>0.1399899860317902</v>
       </c>
       <c r="C131">
-        <v>0.1261637719770225</v>
+        <v>0.141025841902689</v>
       </c>
       <c r="D131">
-        <v>0.1200830506175514</v>
+        <v>0.1421747094123638</v>
       </c>
       <c r="E131">
-        <v>0.1382898230948972</v>
+        <v>0.1603997853650349</v>
       </c>
       <c r="F131">
-        <v>0.1264922979488336</v>
+        <v>0.1472309067177448</v>
       </c>
       <c r="G131">
-        <v>0.1186690473617396</v>
+        <v>0.1294173207657965</v>
       </c>
       <c r="H131">
-        <v>0.1240226866847749</v>
-      </c>
-      <c r="I131">
-        <v>0.126663737140865</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>0.1397614498045807</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.1066355674109735</v>
+        <v>0.1328370604686641</v>
       </c>
       <c r="C132">
-        <v>0.1702373155207223</v>
+        <v>0.2201507428591395</v>
       </c>
       <c r="D132">
-        <v>0.04884361023691983</v>
+        <v>0.05976126449238611</v>
       </c>
       <c r="E132">
-        <v>0.1142517191116656</v>
+        <v>0.145654132227833</v>
       </c>
       <c r="F132">
-        <v>0.07362397072156002</v>
+        <v>0.08477261655691681</v>
       </c>
       <c r="G132">
-        <v>0.1879695840878308</v>
+        <v>0.238668405405895</v>
       </c>
       <c r="H132">
-        <v>0.0999393318670298</v>
-      </c>
-      <c r="I132">
-        <v>0.1984989010432983</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>0.1181557779891654</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.1008590496649409</v>
+        <v>0.114640112716564</v>
       </c>
       <c r="C133">
-        <v>0.09686637969419901</v>
+        <v>0.1123551120261571</v>
       </c>
       <c r="D133">
-        <v>0.1221405487999663</v>
+        <v>0.145938212066571</v>
       </c>
       <c r="E133">
-        <v>0.1216250748863761</v>
+        <v>0.1417276281984619</v>
       </c>
       <c r="F133">
-        <v>0.1847832550482308</v>
+        <v>0.2202392511314498</v>
       </c>
       <c r="G133">
-        <v>0.1460314747923916</v>
+        <v>0.1583401578041189</v>
       </c>
       <c r="H133">
-        <v>0.09569420681045139</v>
-      </c>
-      <c r="I133">
-        <v>0.132000010303444</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>0.1067595260566775</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.1644689352620548</v>
+        <v>0.1944800696585433</v>
       </c>
       <c r="C134">
-        <v>0.09762365155759581</v>
+        <v>0.1208430020942196</v>
       </c>
       <c r="D134">
-        <v>0.120527346766521</v>
+        <v>0.1385573333806555</v>
       </c>
       <c r="E134">
-        <v>0.1059967740876518</v>
+        <v>0.1250799895681885</v>
       </c>
       <c r="F134">
-        <v>0.0636248600084032</v>
+        <v>0.07812183610652677</v>
       </c>
       <c r="G134">
-        <v>0.1641069576384198</v>
+        <v>0.1910026241017326</v>
       </c>
       <c r="H134">
-        <v>0.1319407368301252</v>
-      </c>
-      <c r="I134">
-        <v>0.1517107378492282</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>0.1519151450901337</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.1421985717651227</v>
+        <v>0.1626542301868945</v>
       </c>
       <c r="C135">
-        <v>0.1169540805072089</v>
+        <v>0.1308584737706638</v>
       </c>
       <c r="D135">
-        <v>0.1240406978021355</v>
+        <v>0.1403725409455558</v>
       </c>
       <c r="E135">
-        <v>0.1205676584587588</v>
+        <v>0.1325530352090579</v>
       </c>
       <c r="F135">
-        <v>0.05869338103259554</v>
+        <v>0.06394306907181833</v>
       </c>
       <c r="G135">
-        <v>0.1860525122806291</v>
+        <v>0.2018842566639761</v>
       </c>
       <c r="H135">
-        <v>0.1483051264147348</v>
-      </c>
-      <c r="I135">
-        <v>0.1031879717388147</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>0.1677343941520337</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.09383702035485331</v>
+        <v>0.1056901935384111</v>
       </c>
       <c r="C136">
-        <v>0.1495681924776484</v>
+        <v>0.1700221070376113</v>
       </c>
       <c r="D136">
-        <v>0.1293461073238234</v>
+        <v>0.1387023172895094</v>
       </c>
       <c r="E136">
-        <v>0.1421002673661145</v>
+        <v>0.1663106292908604</v>
       </c>
       <c r="F136">
-        <v>0.1613110583202388</v>
+        <v>0.1804019283233018</v>
       </c>
       <c r="G136">
-        <v>0.1083117514066757</v>
+        <v>0.1242612358744403</v>
       </c>
       <c r="H136">
-        <v>0.09972018204591999</v>
-      </c>
-      <c r="I136">
-        <v>0.1158054207047259</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>0.1146115886458658</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.1180641353031782</v>
+        <v>0.1359973057512263</v>
       </c>
       <c r="C137">
-        <v>0.1388469605596341</v>
+        <v>0.1571256235799523</v>
       </c>
       <c r="D137">
-        <v>0.1244982939532079</v>
+        <v>0.1436264193302601</v>
       </c>
       <c r="E137">
-        <v>0.1241574413209902</v>
+        <v>0.1420832834864033</v>
       </c>
       <c r="F137">
-        <v>0.1230501029716996</v>
+        <v>0.140582647361155</v>
       </c>
       <c r="G137">
-        <v>0.1288936394230738</v>
+        <v>0.1429345044405603</v>
       </c>
       <c r="H137">
-        <v>0.119345560505444</v>
-      </c>
-      <c r="I137">
-        <v>0.1231438659627724</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>0.1376502160504426</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.1911088292714274</v>
+        <v>0.2126220524427504</v>
       </c>
       <c r="C138">
-        <v>0.1065862138278434</v>
+        <v>0.1238237593226957</v>
       </c>
       <c r="D138">
-        <v>0.09856988711615274</v>
+        <v>0.1201441810795244</v>
       </c>
       <c r="E138">
-        <v>0.1077916340401236</v>
+        <v>0.1292997445791297</v>
       </c>
       <c r="F138">
-        <v>0.05376492253086431</v>
+        <v>0.06465211302538935</v>
       </c>
       <c r="G138">
-        <v>0.174346090545559</v>
+        <v>0.1934873681087627</v>
       </c>
       <c r="H138">
-        <v>0.1467825221685172</v>
-      </c>
-      <c r="I138">
-        <v>0.1210499004995124</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>0.1559707814417476</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.1515736932096239</v>
+        <v>0.1687628577831343</v>
       </c>
       <c r="C139">
-        <v>0.1571626159826968</v>
+        <v>0.1859542741941916</v>
       </c>
       <c r="D139">
-        <v>0.09788147597551916</v>
+        <v>0.1358296947882209</v>
       </c>
       <c r="E139">
-        <v>0.1264500383432453</v>
+        <v>0.1361998094110215</v>
       </c>
       <c r="F139">
-        <v>0.1178305403341026</v>
+        <v>0.1709775508453965</v>
       </c>
       <c r="G139">
-        <v>0.05430938276382281</v>
+        <v>0.05765223005202479</v>
       </c>
       <c r="H139">
-        <v>0.133947429528839</v>
-      </c>
-      <c r="I139">
-        <v>0.1608448238621507</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>0.1446235829260104</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.1433304331114986</v>
+        <v>0.1623951342718037</v>
       </c>
       <c r="C140">
-        <v>0.1105038357869003</v>
+        <v>0.1227301575498572</v>
       </c>
       <c r="D140">
-        <v>0.1258696536487516</v>
+        <v>0.1484202168971242</v>
       </c>
       <c r="E140">
-        <v>0.1236562124520836</v>
+        <v>0.1417874539661582</v>
       </c>
       <c r="F140">
-        <v>0.08937308062077821</v>
+        <v>0.09806587986956471</v>
       </c>
       <c r="G140">
-        <v>0.1376237875209054</v>
+        <v>0.146896823124813</v>
       </c>
       <c r="H140">
-        <v>0.1516634376911178</v>
-      </c>
-      <c r="I140">
-        <v>0.1179795591679645</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>0.1797043343206788</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.1155781570261921</v>
+        <v>0.1273639778085066</v>
       </c>
       <c r="C141">
-        <v>0.07651164710224702</v>
+        <v>0.08467884424427491</v>
       </c>
       <c r="D141">
-        <v>0.1555050092408156</v>
+        <v>0.1650583456587078</v>
       </c>
       <c r="E141">
-        <v>0.1355313149616952</v>
+        <v>0.1445902647274498</v>
       </c>
       <c r="F141">
-        <v>0.2523627104457931</v>
+        <v>0.2732054150446659</v>
       </c>
       <c r="G141">
-        <v>0.07050100848418325</v>
+        <v>0.07833534691049904</v>
       </c>
       <c r="H141">
-        <v>0.1140891360106337</v>
-      </c>
-      <c r="I141">
-        <v>0.07992101672843997</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>0.1267678056058959</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.1024173695219075</v>
+        <v>0.1147118168374356</v>
       </c>
       <c r="C142">
-        <v>0.1072425118372642</v>
+        <v>0.120899330604654</v>
       </c>
       <c r="D142">
-        <v>0.1263395108382928</v>
+        <v>0.138017639736381</v>
       </c>
       <c r="E142">
-        <v>0.1212981885140739</v>
+        <v>0.1318625820328406</v>
       </c>
       <c r="F142">
-        <v>0.2132697344047256</v>
+        <v>0.2352813638280828</v>
       </c>
       <c r="G142">
-        <v>0.115360000498186</v>
+        <v>0.1303319011625235</v>
       </c>
       <c r="H142">
-        <v>0.1154899934265375</v>
-      </c>
-      <c r="I142">
-        <v>0.09858269095901254</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>0.1288953657980825</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.02526039448719505</v>
+        <v>0.0275573580512769</v>
       </c>
       <c r="C143">
-        <v>0.03801977937013066</v>
+        <v>0.04964958505677627</v>
       </c>
       <c r="D143">
-        <v>0.2824038395642359</v>
+        <v>0.3078943175012721</v>
       </c>
       <c r="E143">
-        <v>0.3305841889017782</v>
+        <v>0.3453069682175548</v>
       </c>
       <c r="F143">
-        <v>0.03606837059857596</v>
+        <v>0.04006759679824624</v>
       </c>
       <c r="G143">
-        <v>0.1674424086322018</v>
+        <v>0.1826824497622357</v>
       </c>
       <c r="H143">
-        <v>0.04293574312978499</v>
-      </c>
-      <c r="I143">
-        <v>0.07728527531609733</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>0.04684172461263797</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.06888327184964531</v>
+        <v>0.07553605570207172</v>
       </c>
       <c r="C144">
-        <v>0.0737800505405249</v>
+        <v>0.07632688089389313</v>
       </c>
       <c r="D144">
-        <v>0.1699062193997233</v>
+        <v>0.183673486947352</v>
       </c>
       <c r="E144">
-        <v>0.1405431851668264</v>
+        <v>0.152699414356472</v>
       </c>
       <c r="F144">
-        <v>0.2634847181577893</v>
+        <v>0.2944389980662995</v>
       </c>
       <c r="G144">
-        <v>0.05203156951025792</v>
+        <v>0.05760322916558976</v>
       </c>
       <c r="H144">
-        <v>0.1556062612011006</v>
-      </c>
-      <c r="I144">
-        <v>0.07576472417413238</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>0.1597219348683219</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.1021121804417976</v>
+        <v>0.1135331295337727</v>
       </c>
       <c r="C145">
-        <v>0.1444739199089058</v>
+        <v>0.1633620544306436</v>
       </c>
       <c r="D145">
-        <v>0.1580227621301269</v>
+        <v>0.1841454502908641</v>
       </c>
       <c r="E145">
-        <v>0.1120729368147556</v>
+        <v>0.1257837505806508</v>
       </c>
       <c r="F145">
-        <v>0.148606734246021</v>
+        <v>0.1752523502598291</v>
       </c>
       <c r="G145">
-        <v>0.1086170122636132</v>
+        <v>0.1226273522239513</v>
       </c>
       <c r="H145">
-        <v>0.1019677702152921</v>
-      </c>
-      <c r="I145">
-        <v>0.1241266839794878</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>0.1152959126802885</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.1308044881643624</v>
+        <v>0.1525077716972454</v>
       </c>
       <c r="C146">
-        <v>0.1121658624395017</v>
+        <v>0.1239134353444183</v>
       </c>
       <c r="D146">
-        <v>0.1339490446356457</v>
+        <v>0.1565681077792538</v>
       </c>
       <c r="E146">
-        <v>0.1214834225098166</v>
+        <v>0.1383304081876754</v>
       </c>
       <c r="F146">
-        <v>0.05623757187818514</v>
+        <v>0.06257845292217873</v>
       </c>
       <c r="G146">
-        <v>0.2205727940786412</v>
+        <v>0.2378142847226677</v>
       </c>
       <c r="H146">
-        <v>0.112093867859256</v>
-      </c>
-      <c r="I146">
-        <v>0.1126929484345912</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>0.1282875393465607</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.09420207239247136</v>
+        <v>0.1069262610082779</v>
       </c>
       <c r="C147">
-        <v>0.1069762472822624</v>
+        <v>0.1213568766890769</v>
       </c>
       <c r="D147">
-        <v>0.13053897405041</v>
+        <v>0.1477138953308767</v>
       </c>
       <c r="E147">
-        <v>0.1048439289317996</v>
+        <v>0.1217233245579005</v>
       </c>
       <c r="F147">
-        <v>0.2598447784131165</v>
+        <v>0.2843853506409611</v>
       </c>
       <c r="G147">
-        <v>0.10390665759918</v>
+        <v>0.1142957347786254</v>
       </c>
       <c r="H147">
-        <v>0.09301796136285871</v>
-      </c>
-      <c r="I147">
-        <v>0.1066693799679015</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>0.1035985569942817</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.1358306219972348</v>
+        <v>0.1520187753327732</v>
       </c>
       <c r="C148">
-        <v>0.1195314827272716</v>
+        <v>0.1369195939038906</v>
       </c>
       <c r="D148">
-        <v>0.1400808930324689</v>
+        <v>0.1589560128766627</v>
       </c>
       <c r="E148">
-        <v>0.1145215292947361</v>
+        <v>0.1304400191120913</v>
       </c>
       <c r="F148">
-        <v>0.06601667062028231</v>
+        <v>0.07487561541081357</v>
       </c>
       <c r="G148">
-        <v>0.1663924739199994</v>
+        <v>0.1898898627477782</v>
       </c>
       <c r="H148">
-        <v>0.1407274118937392</v>
-      </c>
-      <c r="I148">
-        <v>0.1168989165142677</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>0.1569001206159903</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.1775735862840894</v>
+        <v>0.1984156559689461</v>
       </c>
       <c r="C149">
-        <v>0.1114763281657321</v>
+        <v>0.1212257153303328</v>
       </c>
       <c r="D149">
-        <v>0.125125633571087</v>
+        <v>0.1393858327595618</v>
       </c>
       <c r="E149">
-        <v>0.1117406621929447</v>
+        <v>0.1256820116163095</v>
       </c>
       <c r="F149">
-        <v>0.07379271465994452</v>
+        <v>0.08267534700602187</v>
       </c>
       <c r="G149">
-        <v>0.1592915776295271</v>
+        <v>0.184758513122007</v>
       </c>
       <c r="H149">
-        <v>0.1341467899722677</v>
-      </c>
-      <c r="I149">
-        <v>0.1068527075244074</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>0.1478569241968208</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.1226606915897284</v>
+        <v>0.1344891373054624</v>
       </c>
       <c r="C150">
-        <v>0.1342033862667883</v>
+        <v>0.148814486786412</v>
       </c>
       <c r="D150">
-        <v>0.1189913516019323</v>
+        <v>0.1386895352330104</v>
       </c>
       <c r="E150">
-        <v>0.1303768052871657</v>
+        <v>0.1510639169617626</v>
       </c>
       <c r="F150">
-        <v>0.1289034516136556</v>
+        <v>0.1503971817198604</v>
       </c>
       <c r="G150">
-        <v>0.1171258645143532</v>
+        <v>0.131755701263285</v>
       </c>
       <c r="H150">
-        <v>0.133131317136106</v>
-      </c>
-      <c r="I150">
-        <v>0.1146071319902704</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>0.1447900407302072</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.1293109346390175</v>
+        <v>0.146735201226868</v>
       </c>
       <c r="C151">
-        <v>0.1521750447137976</v>
+        <v>0.1667338966534723</v>
       </c>
       <c r="D151">
-        <v>0.1193620789906292</v>
+        <v>0.1325161776911341</v>
       </c>
       <c r="E151">
-        <v>0.100467347272708</v>
+        <v>0.1156533267465144</v>
       </c>
       <c r="F151">
-        <v>0.06224369652477934</v>
+        <v>0.07020815547147177</v>
       </c>
       <c r="G151">
-        <v>0.1889357739281985</v>
+        <v>0.2108435066166646</v>
       </c>
       <c r="H151">
-        <v>0.1373338276767603</v>
-      </c>
-      <c r="I151">
-        <v>0.1101712962541095</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>0.157309735593875</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.138740683850115</v>
+        <v>0.1585438195629743</v>
       </c>
       <c r="C152">
-        <v>0.1415773916598589</v>
+        <v>0.1599331922719977</v>
       </c>
       <c r="D152">
-        <v>0.1203955301267163</v>
+        <v>0.1353572747467582</v>
       </c>
       <c r="E152">
-        <v>0.1105677421917668</v>
+        <v>0.121745891206724</v>
       </c>
       <c r="F152">
-        <v>0.07580538641396159</v>
+        <v>0.08446052966190422</v>
       </c>
       <c r="G152">
-        <v>0.1592970872557583</v>
+        <v>0.1815340478499357</v>
       </c>
       <c r="H152">
-        <v>0.1379387347464085</v>
-      </c>
-      <c r="I152">
-        <v>0.1156774437554145</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>0.1584252446997058</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.1402297943959853</v>
+        <v>0.1632376788933059</v>
       </c>
       <c r="C153">
-        <v>0.1497594406318132</v>
+        <v>0.1664898768606995</v>
       </c>
       <c r="D153">
-        <v>0.1160400152586942</v>
+        <v>0.1309392251432511</v>
       </c>
       <c r="E153">
-        <v>0.1139701101206734</v>
+        <v>0.1331801781539333</v>
       </c>
       <c r="F153">
-        <v>0.0721604097790494</v>
+        <v>0.07922594790412375</v>
       </c>
       <c r="G153">
-        <v>0.1465216831062519</v>
+        <v>0.1589754566469495</v>
       </c>
       <c r="H153">
-        <v>0.1439785269056679</v>
-      </c>
-      <c r="I153">
-        <v>0.1173400198018646</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>0.167951636397737</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.1348954800904791</v>
+        <v>0.1488739110348404</v>
       </c>
       <c r="C154">
-        <v>0.1347652367990899</v>
+        <v>0.151970540939136</v>
       </c>
       <c r="D154">
-        <v>0.1530898259864493</v>
+        <v>0.1696279269574359</v>
       </c>
       <c r="E154">
-        <v>0.1124732659982205</v>
+        <v>0.1234187220948245</v>
       </c>
       <c r="F154">
-        <v>0.07134984777025793</v>
+        <v>0.0819308987183263</v>
       </c>
       <c r="G154">
-        <v>0.1348520689350307</v>
+        <v>0.1559056337587575</v>
       </c>
       <c r="H154">
-        <v>0.1490039723049308</v>
-      </c>
-      <c r="I154">
-        <v>0.1095703021155417</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>0.1682723664966794</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.09649809664628058</v>
+        <v>0.1098640515904264</v>
       </c>
       <c r="C155">
-        <v>0.1274917085661133</v>
+        <v>0.1430672442173372</v>
       </c>
       <c r="D155">
-        <v>0.119222887987059</v>
+        <v>0.1333740183848877</v>
       </c>
       <c r="E155">
-        <v>0.1022907073493462</v>
+        <v>0.115156971922948</v>
       </c>
       <c r="F155">
-        <v>0.2464736742870005</v>
+        <v>0.2787190613900072</v>
       </c>
       <c r="G155">
-        <v>0.08747988729237198</v>
+        <v>0.0938123250903901</v>
       </c>
       <c r="H155">
-        <v>0.1195539155327568</v>
-      </c>
-      <c r="I155">
-        <v>0.1009891223390716</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>0.1260063274040034</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.1224511503383073</v>
+        <v>0.1387944512626944</v>
       </c>
       <c r="C156">
-        <v>0.1145425384588396</v>
+        <v>0.1298208905250381</v>
       </c>
       <c r="D156">
-        <v>0.1337880744675741</v>
+        <v>0.1542299438800169</v>
       </c>
       <c r="E156">
-        <v>0.1324886901737349</v>
+        <v>0.1534184852602284</v>
       </c>
       <c r="F156">
-        <v>0.151082245585887</v>
+        <v>0.1704424064137449</v>
       </c>
       <c r="G156">
-        <v>0.1142768118151201</v>
+        <v>0.1267953335385653</v>
       </c>
       <c r="H156">
-        <v>0.1116111691776219</v>
-      </c>
-      <c r="I156">
-        <v>0.1197593199829152</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>0.1264984891197118</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.1270098946366906</v>
+        <v>0.1465857584506751</v>
       </c>
       <c r="C157">
-        <v>0.1183546997765967</v>
+        <v>0.1333094575565361</v>
       </c>
       <c r="D157">
-        <v>0.1106845797523134</v>
+        <v>0.1267608479433747</v>
       </c>
       <c r="E157">
-        <v>0.1172699567945805</v>
+        <v>0.127843575433314</v>
       </c>
       <c r="F157">
-        <v>0.103516282269761</v>
+        <v>0.1126169930332366</v>
       </c>
       <c r="G157">
-        <v>0.1709216145416423</v>
+        <v>0.1894521505258734</v>
       </c>
       <c r="H157">
-        <v>0.1570123117814204</v>
-      </c>
-      <c r="I157">
-        <v>0.09523066044699514</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>0.1634312170569902</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.1236110135392077</v>
+        <v>0.1376851552926932</v>
       </c>
       <c r="C158">
-        <v>0.097444648267974</v>
+        <v>0.1091366215905113</v>
       </c>
       <c r="D158">
-        <v>0.1259109301157212</v>
+        <v>0.1425925208527163</v>
       </c>
       <c r="E158">
-        <v>0.134640350222593</v>
+        <v>0.1570259310233681</v>
       </c>
       <c r="F158">
-        <v>0.1688512397091114</v>
+        <v>0.1977323773775725</v>
       </c>
       <c r="G158">
-        <v>0.09968715896833211</v>
+        <v>0.1098696863286347</v>
       </c>
       <c r="H158">
-        <v>0.1273248975441182</v>
-      </c>
-      <c r="I158">
-        <v>0.1225297616329423</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>0.1459577075345041</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.1203208773993587</v>
+        <v>0.134212324070464</v>
       </c>
       <c r="C159">
-        <v>0.0909080549705843</v>
+        <v>0.1071992058609452</v>
       </c>
       <c r="D159">
-        <v>0.1286749010317288</v>
+        <v>0.1494178166914429</v>
       </c>
       <c r="E159">
-        <v>0.1040565396204888</v>
+        <v>0.1103814545317287</v>
       </c>
       <c r="F159">
-        <v>0.05524147745200972</v>
+        <v>0.0652043590969887</v>
       </c>
       <c r="G159">
-        <v>0.266528070024002</v>
+        <v>0.3017825170720301</v>
       </c>
       <c r="H159">
-        <v>0.1206095235664969</v>
-      </c>
-      <c r="I159">
-        <v>0.1136605559353307</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>0.1318023226764003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.1306882357048803</v>
+        <v>0.1443509484974976</v>
       </c>
       <c r="C160">
-        <v>0.09355930653969668</v>
+        <v>0.1031503894925714</v>
       </c>
       <c r="D160">
-        <v>0.1145322105102663</v>
+        <v>0.1219326835074495</v>
       </c>
       <c r="E160">
-        <v>0.1011565403968362</v>
+        <v>0.1133577978669912</v>
       </c>
       <c r="F160">
-        <v>0.06342337223840379</v>
+        <v>0.06921112337136373</v>
       </c>
       <c r="G160">
-        <v>0.2680702061408247</v>
+        <v>0.3006755019499398</v>
       </c>
       <c r="H160">
-        <v>0.1337114484528967</v>
-      </c>
-      <c r="I160">
-        <v>0.09485868001619523</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>0.1473215553141868</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.1230197395662364</v>
+        <v>0.1403926732205121</v>
       </c>
       <c r="C161">
-        <v>0.1367323074082443</v>
+        <v>0.1494698883858552</v>
       </c>
       <c r="D161">
-        <v>0.1258943768756744</v>
+        <v>0.142962913297029</v>
       </c>
       <c r="E161">
-        <v>0.1211810131644656</v>
+        <v>0.1357625255204282</v>
       </c>
       <c r="F161">
-        <v>0.140760834226548</v>
+        <v>0.1614697237122046</v>
       </c>
       <c r="G161">
-        <v>0.1016189023852017</v>
+        <v>0.1144869507230585</v>
       </c>
       <c r="H161">
-        <v>0.1435451453294571</v>
-      </c>
-      <c r="I161">
-        <v>0.1072476810441724</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>0.1554553251409125</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.1617335753982532</v>
+        <v>0.1984815373266367</v>
       </c>
       <c r="C162">
-        <v>0.1245845227580054</v>
+        <v>0.1349014240597002</v>
       </c>
       <c r="D162">
-        <v>0.1281952712135426</v>
+        <v>0.1369978382636231</v>
       </c>
       <c r="E162">
-        <v>0.1079000579213655</v>
+        <v>0.1177817871523363</v>
       </c>
       <c r="F162">
-        <v>0.103206130250849</v>
+        <v>0.1147251242880446</v>
       </c>
       <c r="G162">
-        <v>0.1047744536252693</v>
+        <v>0.1190512002071418</v>
       </c>
       <c r="H162">
-        <v>0.1495707986054483</v>
-      </c>
-      <c r="I162">
-        <v>0.1200351902272668</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>0.1780610887025173</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.04561781353590424</v>
+        <v>0.04404513481752163</v>
       </c>
       <c r="C163">
-        <v>0.05841397273630076</v>
+        <v>0.06295998584176224</v>
       </c>
       <c r="D163">
-        <v>0.1945002166192393</v>
+        <v>0.2072437797384535</v>
       </c>
       <c r="E163">
-        <v>0.1728825962179049</v>
+        <v>0.184376305622732</v>
       </c>
       <c r="F163">
-        <v>0.1996102035041488</v>
+        <v>0.2019321881039874</v>
       </c>
       <c r="G163">
-        <v>0.2281234670328346</v>
+        <v>0.2729182861484052</v>
       </c>
       <c r="H163">
-        <v>0.03164603429318238</v>
-      </c>
-      <c r="I163">
-        <v>0.06920569606048516</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>0.02652431972713819</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.101471092209463</v>
+        <v>0.1122195731447685</v>
       </c>
       <c r="C164">
-        <v>0.1313156971777809</v>
+        <v>0.1457507977160376</v>
       </c>
       <c r="D164">
-        <v>0.1472654623415597</v>
+        <v>0.1684097131779078</v>
       </c>
       <c r="E164">
-        <v>0.1483073957771742</v>
+        <v>0.1685633305177625</v>
       </c>
       <c r="F164">
-        <v>0.1369757673437376</v>
+        <v>0.1498894038197701</v>
       </c>
       <c r="G164">
-        <v>0.1039664426365126</v>
+        <v>0.1105225519828499</v>
       </c>
       <c r="H164">
-        <v>0.1320070221190413</v>
-      </c>
-      <c r="I164">
-        <v>0.0986911203947307</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>0.1446446296409037</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.159923179261662</v>
+        <v>0.1825143666551529</v>
       </c>
       <c r="C165">
-        <v>0.1207900460938097</v>
+        <v>0.1405018573949786</v>
       </c>
       <c r="D165">
-        <v>0.1148642402381745</v>
+        <v>0.1277938347545855</v>
       </c>
       <c r="E165">
-        <v>0.1162617785346577</v>
+        <v>0.1341853212391899</v>
       </c>
       <c r="F165">
-        <v>0.08753635260999817</v>
+        <v>0.1030893481898756</v>
       </c>
       <c r="G165">
-        <v>0.1375869476203122</v>
+        <v>0.1554749237854054</v>
       </c>
       <c r="H165">
-        <v>0.1383448574480228</v>
-      </c>
-      <c r="I165">
-        <v>0.1246925981933631</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>0.1564403479808123</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.07465059305979328</v>
+        <v>0.07919690757970371</v>
       </c>
       <c r="C166">
-        <v>0.1739357526828915</v>
+        <v>0.2023292455185294</v>
       </c>
       <c r="D166">
-        <v>0.1724493140792078</v>
+        <v>0.1866774328016159</v>
       </c>
       <c r="E166">
-        <v>0.1645643942573955</v>
+        <v>0.1925233234009689</v>
       </c>
       <c r="F166">
-        <v>0.02752142664011277</v>
+        <v>0.02777980441317802</v>
       </c>
       <c r="G166">
-        <v>0.1691046589925202</v>
+        <v>0.2122856205391558</v>
       </c>
       <c r="H166">
-        <v>0.08991850954848041</v>
-      </c>
-      <c r="I166">
-        <v>0.1278553507395987</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>0.09920766574684836</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.1385996211023241</v>
+        <v>0.1578874232684625</v>
       </c>
       <c r="C167">
-        <v>0.1290644619822457</v>
+        <v>0.1472553751122094</v>
       </c>
       <c r="D167">
-        <v>0.1098280506051975</v>
+        <v>0.123762510348372</v>
       </c>
       <c r="E167">
-        <v>0.1110445548534438</v>
+        <v>0.124581803665324</v>
       </c>
       <c r="F167">
-        <v>0.08321973801318028</v>
+        <v>0.09433274845926036</v>
       </c>
       <c r="G167">
-        <v>0.1565313740368812</v>
+        <v>0.1752008370249368</v>
       </c>
       <c r="H167">
-        <v>0.1540195212651873</v>
-      </c>
-      <c r="I167">
-        <v>0.1176926781415401</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>0.1769793021214351</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.09401451744973889</v>
+        <v>0.106225900912215</v>
       </c>
       <c r="C168">
-        <v>0.1338377006872671</v>
+        <v>0.142492784654746</v>
       </c>
       <c r="D168">
-        <v>0.1317117898249722</v>
+        <v>0.1492771086666366</v>
       </c>
       <c r="E168">
-        <v>0.1324099249817434</v>
+        <v>0.1507132684542757</v>
       </c>
       <c r="F168">
-        <v>0.2345566575475261</v>
+        <v>0.2517738386848438</v>
       </c>
       <c r="G168">
-        <v>0.08238289548701744</v>
+        <v>0.09013635010510097</v>
       </c>
       <c r="H168">
-        <v>0.09718233766159125</v>
-      </c>
-      <c r="I168">
-        <v>0.09390417636014368</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>0.1093807485221818</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.1537848436513217</v>
+        <v>0.1774573362935078</v>
       </c>
       <c r="C169">
-        <v>0.1171743136409807</v>
+        <v>0.1280462969740216</v>
       </c>
       <c r="D169">
-        <v>0.1255861069423074</v>
+        <v>0.1425936343576236</v>
       </c>
       <c r="E169">
-        <v>0.1079517459900502</v>
+        <v>0.124665022913668</v>
       </c>
       <c r="F169">
-        <v>0.09738264618832745</v>
+        <v>0.1109262243044635</v>
       </c>
       <c r="G169">
-        <v>0.1411134698040053</v>
+        <v>0.1582292098602765</v>
       </c>
       <c r="H169">
-        <v>0.1362940354297433</v>
-      </c>
-      <c r="I169">
-        <v>0.1207128383532639</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>0.158082275296439</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.06122237319070682</v>
+        <v>0.07039790592938398</v>
       </c>
       <c r="C170">
-        <v>0.2085240640261258</v>
+        <v>0.2503760716391282</v>
       </c>
       <c r="D170">
-        <v>0.1134526445007141</v>
+        <v>0.1279542669064571</v>
       </c>
       <c r="E170">
-        <v>0.07271679002952411</v>
+        <v>0.06951997262608196</v>
       </c>
       <c r="F170">
-        <v>0.1792766899158078</v>
+        <v>0.174080000181573</v>
       </c>
       <c r="G170">
-        <v>0.1643401825275961</v>
+        <v>0.2042630215274462</v>
       </c>
       <c r="H170">
-        <v>0.09339324014487171</v>
-      </c>
-      <c r="I170">
-        <v>0.1070740156646535</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>0.1034087611899295</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.08792374728248623</v>
+        <v>0.09536941811830667</v>
       </c>
       <c r="C171">
-        <v>0.1239103999360125</v>
+        <v>0.1337857602820403</v>
       </c>
       <c r="D171">
-        <v>0.144143361560036</v>
+        <v>0.157853823889094</v>
       </c>
       <c r="E171">
-        <v>0.1213007963913171</v>
+        <v>0.1290932366399013</v>
       </c>
       <c r="F171">
-        <v>0.2415441570250575</v>
+        <v>0.2601718945219074</v>
       </c>
       <c r="G171">
-        <v>0.09932057165071716</v>
+        <v>0.1134149782280898</v>
       </c>
       <c r="H171">
-        <v>0.09739553709411373</v>
-      </c>
-      <c r="I171">
-        <v>0.08446142906025982</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>0.1103108883206605</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.1081974139918565</v>
+        <v>0.1230508900302549</v>
       </c>
       <c r="C172">
-        <v>0.1039239650214909</v>
+        <v>0.1185131599969123</v>
       </c>
       <c r="D172">
-        <v>0.136973363582114</v>
+        <v>0.1556027373071161</v>
       </c>
       <c r="E172">
-        <v>0.1250555550349943</v>
+        <v>0.1455937404494344</v>
       </c>
       <c r="F172">
-        <v>0.165669912416802</v>
+        <v>0.1805425802327222</v>
       </c>
       <c r="G172">
-        <v>0.1137456124147179</v>
+        <v>0.131875929856635</v>
       </c>
       <c r="H172">
-        <v>0.1301245622498967</v>
-      </c>
-      <c r="I172">
-        <v>0.1163096152881279</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>0.1448209621269249</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.1300561330042929</v>
+        <v>0.1393261351906646</v>
       </c>
       <c r="C173">
-        <v>0.1370526128267229</v>
+        <v>0.1519566675361579</v>
       </c>
       <c r="D173">
-        <v>0.1524324430198231</v>
+        <v>0.1647506528577244</v>
       </c>
       <c r="E173">
-        <v>0.1242021683499529</v>
+        <v>0.1308639184719394</v>
       </c>
       <c r="F173">
-        <v>0.1152463790371108</v>
+        <v>0.130847010725277</v>
       </c>
       <c r="G173">
-        <v>0.1211849599486517</v>
+        <v>0.1290549674146277</v>
       </c>
       <c r="H173">
-        <v>0.14266808953082</v>
-      </c>
-      <c r="I173">
-        <v>0.07715721428262558</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>0.153200647803609</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.1564128069678677</v>
+        <v>0.1703313274103931</v>
       </c>
       <c r="C174">
-        <v>0.1318629653189855</v>
+        <v>0.1508360729271045</v>
       </c>
       <c r="D174">
-        <v>0.1358268827134375</v>
+        <v>0.1553704292971629</v>
       </c>
       <c r="E174">
-        <v>0.1045811062218725</v>
+        <v>0.1199957835086936</v>
       </c>
       <c r="F174">
-        <v>0.06731303993617521</v>
+        <v>0.07686312857644143</v>
       </c>
       <c r="G174">
-        <v>0.1718016289890312</v>
+        <v>0.1856976819235076</v>
       </c>
       <c r="H174">
-        <v>0.1207377818953305</v>
-      </c>
-      <c r="I174">
-        <v>0.1114637879572999</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>0.1409055763566967</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.1426937965594402</v>
+        <v>0.155436478786733</v>
       </c>
       <c r="C175">
-        <v>0.07706508424200917</v>
+        <v>0.0844395213913768</v>
       </c>
       <c r="D175">
-        <v>0.1226138086810043</v>
+        <v>0.137579769146875</v>
       </c>
       <c r="E175">
-        <v>0.1136573973822415</v>
+        <v>0.1304074363529801</v>
       </c>
       <c r="F175">
-        <v>0.2288341841797478</v>
+        <v>0.2661010436089016</v>
       </c>
       <c r="G175">
-        <v>0.09210304795961341</v>
+        <v>0.1057548492736237</v>
       </c>
       <c r="H175">
-        <v>0.102516415989833</v>
-      </c>
-      <c r="I175">
-        <v>0.1205162650061104</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>0.1202809014395098</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.1072456608248547</v>
+        <v>0.1219428219323829</v>
       </c>
       <c r="C176">
-        <v>0.1607058094396</v>
+        <v>0.1798679444498002</v>
       </c>
       <c r="D176">
-        <v>0.1301783441496161</v>
+        <v>0.1485142399793281</v>
       </c>
       <c r="E176">
-        <v>0.1089828923365244</v>
+        <v>0.1239222338012997</v>
       </c>
       <c r="F176">
-        <v>0.1445350573043195</v>
+        <v>0.1698874062497489</v>
       </c>
       <c r="G176">
-        <v>0.1153874889802644</v>
+        <v>0.1287897485920221</v>
       </c>
       <c r="H176">
-        <v>0.1117597688505191</v>
-      </c>
-      <c r="I176">
-        <v>0.1212049781143019</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>0.1270756049954183</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.1179907850102757</v>
+        <v>0.128605407651772</v>
       </c>
       <c r="C177">
-        <v>0.1212784991609437</v>
+        <v>0.1398295954279929</v>
       </c>
       <c r="D177">
-        <v>0.1160016066559124</v>
+        <v>0.1317230088855554</v>
       </c>
       <c r="E177">
-        <v>0.1251820355915338</v>
+        <v>0.1442039839866025</v>
       </c>
       <c r="F177">
-        <v>0.1495069072536502</v>
+        <v>0.1768866956658315</v>
       </c>
       <c r="G177">
-        <v>0.1190557671732975</v>
+        <v>0.1352826109489275</v>
       </c>
       <c r="H177">
-        <v>0.1335675888988933</v>
-      </c>
-      <c r="I177">
-        <v>0.1174168102554934</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>0.1434686974333181</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.09921698364167074</v>
+        <v>0.1069836609642033</v>
       </c>
       <c r="C178">
-        <v>0.1034573542058834</v>
+        <v>0.1166598761582212</v>
       </c>
       <c r="D178">
-        <v>0.1384597138846312</v>
+        <v>0.1543744961156537</v>
       </c>
       <c r="E178">
-        <v>0.1031302776149589</v>
+        <v>0.1160807506362063</v>
       </c>
       <c r="F178">
-        <v>0.2559070315719744</v>
+        <v>0.2843275939783677</v>
       </c>
       <c r="G178">
-        <v>0.1001410847891533</v>
+        <v>0.1102252173622511</v>
       </c>
       <c r="H178">
-        <v>0.09852940930789157</v>
-      </c>
-      <c r="I178">
-        <v>0.1011581449838366</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>0.1113484047850968</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.1438441025622501</v>
+        <v>0.1648288617328401</v>
       </c>
       <c r="C179">
-        <v>0.1187640027603673</v>
+        <v>0.1346630841512373</v>
       </c>
       <c r="D179">
-        <v>0.1190526366589387</v>
+        <v>0.133287542485987</v>
       </c>
       <c r="E179">
-        <v>0.1192750593830188</v>
+        <v>0.1361089364212799</v>
       </c>
       <c r="F179">
-        <v>0.1137702364335691</v>
+        <v>0.1307392936067305</v>
       </c>
       <c r="G179">
-        <v>0.1150877100455797</v>
+        <v>0.1338971292580329</v>
       </c>
       <c r="H179">
-        <v>0.1462365872656351</v>
-      </c>
-      <c r="I179">
-        <v>0.1239696648906413</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>0.1664751523438924</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.1234077120134735</v>
+        <v>0.1337858426635296</v>
       </c>
       <c r="C180">
-        <v>0.08647143062268413</v>
+        <v>0.09584151845085032</v>
       </c>
       <c r="D180">
-        <v>0.1511196946133338</v>
+        <v>0.1655078850743514</v>
       </c>
       <c r="E180">
-        <v>0.1264695444803866</v>
+        <v>0.1415308456182174</v>
       </c>
       <c r="F180">
-        <v>0.2075986961354883</v>
+        <v>0.2368476753076664</v>
       </c>
       <c r="G180">
-        <v>0.07653012593709987</v>
+        <v>0.08538838004452104</v>
       </c>
       <c r="H180">
-        <v>0.1325459303264406</v>
-      </c>
-      <c r="I180">
-        <v>0.09585686587109334</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>0.1410978528408637</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.1284449508152398</v>
+        <v>0.1422087565136463</v>
       </c>
       <c r="C181">
-        <v>0.1216536789951258</v>
+        <v>0.1392569935414839</v>
       </c>
       <c r="D181">
-        <v>0.1327146006208881</v>
+        <v>0.1517441513492223</v>
       </c>
       <c r="E181">
-        <v>0.1282676100107829</v>
+        <v>0.1471416347269271</v>
       </c>
       <c r="F181">
-        <v>0.1558718531728956</v>
+        <v>0.1743334779864315</v>
       </c>
       <c r="G181">
-        <v>0.09512434646403908</v>
+        <v>0.1065107204007209</v>
       </c>
       <c r="H181">
-        <v>0.1211194255853765</v>
-      </c>
-      <c r="I181">
-        <v>0.1168035343356523</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>0.138804265481568</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.1566875679079366</v>
+        <v>0.1835197043070075</v>
       </c>
       <c r="C182">
-        <v>0.1214836671487036</v>
+        <v>0.139856186874476</v>
       </c>
       <c r="D182">
-        <v>0.1211509529957706</v>
+        <v>0.1367390646128854</v>
       </c>
       <c r="E182">
-        <v>0.107547936662111</v>
+        <v>0.1217024351678204</v>
       </c>
       <c r="F182">
-        <v>0.09654095917889084</v>
+        <v>0.1108396898309442</v>
       </c>
       <c r="G182">
-        <v>0.1127966477380905</v>
+        <v>0.1310644211192841</v>
       </c>
       <c r="H182">
-        <v>0.1589091221229788</v>
-      </c>
-      <c r="I182">
-        <v>0.124883146245518</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>0.1762784980875823</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.1103830693406505</v>
+        <v>0.131240005395449</v>
       </c>
       <c r="C183">
-        <v>0.140098012260877</v>
+        <v>0.1666454800845333</v>
       </c>
       <c r="D183">
-        <v>0.1256196360305717</v>
+        <v>0.1448727145304761</v>
       </c>
       <c r="E183">
-        <v>0.1345096641825006</v>
+        <v>0.1670011422453168</v>
       </c>
       <c r="F183">
-        <v>0.08564027068447723</v>
+        <v>0.1017021669400592</v>
       </c>
       <c r="G183">
-        <v>0.1518654135971949</v>
+        <v>0.1802143829863416</v>
       </c>
       <c r="H183">
-        <v>0.09293385305736802</v>
-      </c>
-      <c r="I183">
-        <v>0.1589500808463599</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>0.1083241078178239</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.1495307097198672</v>
+        <v>0.1675703899388528</v>
       </c>
       <c r="C184">
-        <v>0.1303960844823526</v>
+        <v>0.1449920599201337</v>
       </c>
       <c r="D184">
-        <v>0.1421004078230567</v>
+        <v>0.1586958678848625</v>
       </c>
       <c r="E184">
-        <v>0.109128302111827</v>
+        <v>0.1231774258046417</v>
       </c>
       <c r="F184">
-        <v>0.07662465740350097</v>
+        <v>0.08878458581351471</v>
       </c>
       <c r="G184">
-        <v>0.1594604436022169</v>
+        <v>0.1783502356662228</v>
       </c>
       <c r="H184">
-        <v>0.1202768457467897</v>
-      </c>
-      <c r="I184">
-        <v>0.1124825491103889</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>0.1384294349717717</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.09026712380803895</v>
+        <v>0.1064461915544302</v>
       </c>
       <c r="C185">
-        <v>0.1510999567587345</v>
+        <v>0.1558725404064485</v>
       </c>
       <c r="D185">
-        <v>0.2201163228868582</v>
+        <v>0.2395849899318922</v>
       </c>
       <c r="E185">
-        <v>0.1691881435302942</v>
+        <v>0.1843078175135386</v>
       </c>
       <c r="F185">
-        <v>0.09252272395625538</v>
+        <v>0.09482144580637357</v>
       </c>
       <c r="G185">
-        <v>0.04092629116249063</v>
+        <v>0.04790505112966231</v>
       </c>
       <c r="H185">
-        <v>0.1502860005073769</v>
-      </c>
-      <c r="I185">
-        <v>0.08559343738995119</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>0.1710619636576544</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.14220476785399</v>
+        <v>0.1610298438543577</v>
       </c>
       <c r="C186">
-        <v>0.1144971922944029</v>
+        <v>0.1319065941840472</v>
       </c>
       <c r="D186">
-        <v>0.1133806817489887</v>
+        <v>0.1233789370645585</v>
       </c>
       <c r="E186">
-        <v>0.1287955866087432</v>
+        <v>0.1408885624129418</v>
       </c>
       <c r="F186">
-        <v>0.1114200411862466</v>
+        <v>0.1220518723471873</v>
       </c>
       <c r="G186">
-        <v>0.1417167774087509</v>
+        <v>0.164626517530453</v>
       </c>
       <c r="H186">
-        <v>0.1435341419088713</v>
-      </c>
-      <c r="I186">
-        <v>0.1044508109900064</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>0.1561176726064546</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.1305119860187026</v>
+        <v>0.150800534021649</v>
       </c>
       <c r="C187">
-        <v>0.126954330662922</v>
+        <v>0.1444872595569255</v>
       </c>
       <c r="D187">
-        <v>0.1451005306079118</v>
+        <v>0.1622833666106972</v>
       </c>
       <c r="E187">
-        <v>0.1199232405247901</v>
+        <v>0.1364988824136059</v>
       </c>
       <c r="F187">
-        <v>0.06668695411938018</v>
+        <v>0.07311898376598054</v>
       </c>
       <c r="G187">
-        <v>0.1687961667358502</v>
+        <v>0.1926870692813984</v>
       </c>
       <c r="H187">
-        <v>0.1251517478219509</v>
-      </c>
-      <c r="I187">
-        <v>0.1168750435084921</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>0.1401239043497434</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.030121342802495</v>
+        <v>0.03316707297839499</v>
       </c>
       <c r="C188">
-        <v>0.08848951914844405</v>
+        <v>0.09097096302985121</v>
       </c>
       <c r="D188">
-        <v>0.1768700749745651</v>
+        <v>0.2087271984178748</v>
       </c>
       <c r="E188">
-        <v>0.1332009334630702</v>
+        <v>0.1408034040798175</v>
       </c>
       <c r="F188">
-        <v>0.2548749701278189</v>
+        <v>0.2702000307651747</v>
       </c>
       <c r="G188">
-        <v>0.206055981246773</v>
+        <v>0.2038763478815619</v>
       </c>
       <c r="H188">
-        <v>0.04902106684926377</v>
-      </c>
-      <c r="I188">
-        <v>0.06136611138757011</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>0.05225498284732472</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.09943235234794494</v>
+        <v>0.1197796098157973</v>
       </c>
       <c r="C189">
-        <v>0.1586410289066091</v>
+        <v>0.1838999607570879</v>
       </c>
       <c r="D189">
-        <v>0.1088034294356198</v>
+        <v>0.1243763313702678</v>
       </c>
       <c r="E189">
-        <v>0.1109724881697609</v>
+        <v>0.1260629797078621</v>
       </c>
       <c r="F189">
-        <v>0.12839343899721</v>
+        <v>0.1554373868732508</v>
       </c>
       <c r="G189">
-        <v>0.1177450112489091</v>
+        <v>0.1371063259046058</v>
       </c>
       <c r="H189">
-        <v>0.1302182060053818</v>
-      </c>
-      <c r="I189">
-        <v>0.1457940448885644</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>0.1533374055711282</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.09232786073784245</v>
+        <v>0.09886980071999787</v>
       </c>
       <c r="C190">
-        <v>0.1044461614456929</v>
+        <v>0.1184828378994107</v>
       </c>
       <c r="D190">
-        <v>0.135082822636271</v>
+        <v>0.153015208749737</v>
       </c>
       <c r="E190">
-        <v>0.1324019152497195</v>
+        <v>0.1527648536286813</v>
       </c>
       <c r="F190">
-        <v>0.1672350984950064</v>
+        <v>0.1949714605481551</v>
       </c>
       <c r="G190">
-        <v>0.1354249824846983</v>
+        <v>0.1527168076599091</v>
       </c>
       <c r="H190">
-        <v>0.1089637337317026</v>
-      </c>
-      <c r="I190">
-        <v>0.1241174252190669</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>0.1291790307941088</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.1437482552352138</v>
+        <v>0.1657631131012437</v>
       </c>
       <c r="C191">
-        <v>0.1299507286907334</v>
+        <v>0.1489436765128118</v>
       </c>
       <c r="D191">
-        <v>0.12212845769642</v>
+        <v>0.1457562058754172</v>
       </c>
       <c r="E191">
-        <v>0.1353569169283173</v>
+        <v>0.1527301034911606</v>
       </c>
       <c r="F191">
-        <v>0.06934065202729726</v>
+        <v>0.07791255137588067</v>
       </c>
       <c r="G191">
-        <v>0.1416786661836102</v>
+        <v>0.1570346451315106</v>
       </c>
       <c r="H191">
-        <v>0.1380236066678112</v>
-      </c>
-      <c r="I191">
-        <v>0.119772716570597</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>0.1518597045119756</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.1305299635075367</v>
+        <v>0.1485248221309175</v>
       </c>
       <c r="C192">
-        <v>0.1279563858584286</v>
+        <v>0.14804714618527</v>
       </c>
       <c r="D192">
-        <v>0.1183296429116919</v>
+        <v>0.1309900894104604</v>
       </c>
       <c r="E192">
-        <v>0.1209035505752711</v>
+        <v>0.1399379653441397</v>
       </c>
       <c r="F192">
-        <v>0.06612746696957178</v>
+        <v>0.07734023374231962</v>
       </c>
       <c r="G192">
-        <v>0.1556037377095907</v>
+        <v>0.1772721344331955</v>
       </c>
       <c r="H192">
-        <v>0.1628648271464767</v>
-      </c>
-      <c r="I192">
-        <v>0.1176844253214324</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>0.1778876087536973</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.1240303232818775</v>
+        <v>0.1390395098769619</v>
       </c>
       <c r="C193">
-        <v>0.1212169823311747</v>
+        <v>0.1463836483466971</v>
       </c>
       <c r="D193">
-        <v>0.132955869572353</v>
+        <v>0.1530272221475049</v>
       </c>
       <c r="E193">
-        <v>0.1224669542791868</v>
+        <v>0.1408579169687801</v>
       </c>
       <c r="F193">
-        <v>0.1362030386033636</v>
+        <v>0.1556174252658919</v>
       </c>
       <c r="G193">
-        <v>0.1184634811545442</v>
+        <v>0.1395479904391869</v>
       </c>
       <c r="H193">
-        <v>0.1065545580967116</v>
-      </c>
-      <c r="I193">
-        <v>0.1381087926807885</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>0.1255262869549771</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.0857850896026834</v>
+        <v>0.09468302827359602</v>
       </c>
       <c r="C194">
-        <v>0.1050388958787995</v>
+        <v>0.1161309710933804</v>
       </c>
       <c r="D194">
-        <v>0.1388823046366089</v>
+        <v>0.1526611188952739</v>
       </c>
       <c r="E194">
-        <v>0.1427890528915237</v>
+        <v>0.1556411811198564</v>
       </c>
       <c r="F194">
-        <v>0.2413737806194666</v>
+        <v>0.2621710504163486</v>
       </c>
       <c r="G194">
-        <v>0.09264202497737403</v>
+        <v>0.1020239262804905</v>
       </c>
       <c r="H194">
-        <v>0.1008864550721633</v>
-      </c>
-      <c r="I194">
-        <v>0.09260239632138058</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>0.116688723921054</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.0624643141806574</v>
+        <v>0.07005333235751934</v>
       </c>
       <c r="C195">
-        <v>0.09512182953235854</v>
+        <v>0.107773320685201</v>
       </c>
       <c r="D195">
-        <v>0.188677843905044</v>
+        <v>0.2192348949294362</v>
       </c>
       <c r="E195">
-        <v>0.08275416398069763</v>
+        <v>0.09999753573117137</v>
       </c>
       <c r="F195">
-        <v>0.2800851467117318</v>
+        <v>0.3016521883894839</v>
       </c>
       <c r="G195">
-        <v>0.08069745404953566</v>
+        <v>0.09783779016741909</v>
       </c>
       <c r="H195">
-        <v>0.09240690173389766</v>
-      </c>
-      <c r="I195">
-        <v>0.1177923459060774</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>0.1034509377397691</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.1500058114504537</v>
+        <v>0.1689784825193316</v>
       </c>
       <c r="C196">
-        <v>0.1076286863740959</v>
+        <v>0.1180419312408913</v>
       </c>
       <c r="D196">
-        <v>0.1295572493642756</v>
+        <v>0.150511966883171</v>
       </c>
       <c r="E196">
-        <v>0.1212278765932168</v>
+        <v>0.1400096940223112</v>
       </c>
       <c r="F196">
-        <v>0.09686275844987748</v>
+        <v>0.1040623164139167</v>
       </c>
       <c r="G196">
-        <v>0.1371645379159759</v>
+        <v>0.1494444670175506</v>
       </c>
       <c r="H196">
-        <v>0.1508334239439411</v>
-      </c>
-      <c r="I196">
-        <v>0.1067196559081634</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>0.1689511419028275</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.1484616692812585</v>
+        <v>0.1755204017506228</v>
       </c>
       <c r="C197">
-        <v>0.1126803525530168</v>
+        <v>0.1297682344416258</v>
       </c>
       <c r="D197">
-        <v>0.1208233559470534</v>
+        <v>0.137502746570423</v>
       </c>
       <c r="E197">
-        <v>0.1146852944627688</v>
+        <v>0.1302019649339517</v>
       </c>
       <c r="F197">
-        <v>0.104002492729693</v>
+        <v>0.1197955503671111</v>
       </c>
       <c r="G197">
-        <v>0.1305937803966848</v>
+        <v>0.1467087852767977</v>
       </c>
       <c r="H197">
-        <v>0.139508645753931</v>
-      </c>
-      <c r="I197">
-        <v>0.1292444088755936</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>0.1605023166594679</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.116464797887505</v>
+        <v>0.1335413103472629</v>
       </c>
       <c r="C198">
-        <v>0.134558389762053</v>
+        <v>0.1495324440784825</v>
       </c>
       <c r="D198">
-        <v>0.1281546440206026</v>
+        <v>0.145679767896818</v>
       </c>
       <c r="E198">
-        <v>0.1219714520058794</v>
+        <v>0.1384972765478065</v>
       </c>
       <c r="F198">
-        <v>0.1418329600047039</v>
+        <v>0.1623386288519739</v>
       </c>
       <c r="G198">
-        <v>0.1218319374630293</v>
+        <v>0.1376955854083827</v>
       </c>
       <c r="H198">
-        <v>0.117797571328907</v>
-      </c>
-      <c r="I198">
-        <v>0.1173882475273198</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>0.1327149868692735</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.08941092762373956</v>
+        <v>0.09977073263400119</v>
       </c>
       <c r="C199">
-        <v>0.1076273454646065</v>
+        <v>0.1148899285629458</v>
       </c>
       <c r="D199">
-        <v>0.1581202858200737</v>
+        <v>0.1685020488765572</v>
       </c>
       <c r="E199">
-        <v>0.1152185838445604</v>
+        <v>0.1282800609761028</v>
       </c>
       <c r="F199">
-        <v>0.05564796702470622</v>
+        <v>0.06183571801968778</v>
       </c>
       <c r="G199">
-        <v>0.2558496487601983</v>
+        <v>0.2662053134000005</v>
       </c>
       <c r="H199">
-        <v>0.1252055381568396</v>
-      </c>
-      <c r="I199">
-        <v>0.09291970330527576</v>
+        <v>0.1605161975307048</v>
       </c>
     </row>
   </sheetData>
